--- a/data-input/country-codes/country-codes.xlsx
+++ b/data-input/country-codes/country-codes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iLucas/Dropbox/WID/Population/WorldNationalAccounts/stata-programs/country-codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasblanchet/GitHub/wid-world/data-input/country-codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="1100">
   <si>
     <t>code</t>
   </si>
@@ -3321,6 +3321,12 @@
   </si>
   <si>
     <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>the Middle East</t>
   </si>
 </sst>
 </file>
@@ -3678,8 +3684,8 @@
   <dimension ref="A1:F730"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A674" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E690" sqref="E690"/>
+      <pane ySplit="1" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C619" sqref="C619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9956,82 +9962,88 @@
         <v>988</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B612" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>865</v>
       </c>

--- a/data-input/country-codes/country-codes.xlsx
+++ b/data-input/country-codes/country-codes.xlsx
@@ -3352,6 +3352,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Courier"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3684,8 +3685,8 @@
   <dimension ref="A1:F730"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C619" sqref="C619"/>
+      <pane ySplit="1" topLeftCell="A597" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C613" sqref="C613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9982,10 +9983,10 @@
         <v>853</v>
       </c>
       <c r="B612" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C612" s="2" t="s">
         <v>1098</v>
-      </c>
-      <c r="C612" s="2" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">

--- a/data-input/country-codes/country-codes.xlsx
+++ b/data-input/country-codes/country-codes.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasblanchet/GitHub/wid-world/data-input/country-codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amory\Documents\GitHub\wid-world\data-input\country-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Country Codes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="1106">
   <si>
     <t>code</t>
   </si>
@@ -3327,6 +3324,24 @@
   </si>
   <si>
     <t>the Middle East</t>
+  </si>
+  <si>
+    <t>Middle East and Northern Africa</t>
+  </si>
+  <si>
+    <t>Latin America</t>
+  </si>
+  <si>
+    <t>Asia (excl. Middle East)</t>
+  </si>
+  <si>
+    <t>Russia and Ukraine</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Asia (excluding Middle East)</t>
   </si>
 </sst>
 </file>
@@ -3355,7 +3370,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3374,6 +3389,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3387,7 +3408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3405,6 +3426,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3414,6 +3442,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3685,21 +3716,21 @@
   <dimension ref="A1:F730"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A597" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C613" sqref="C613"/>
+      <pane ySplit="1" topLeftCell="A603" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C611" sqref="C611"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="42.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="32" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3719,22 +3750,22 @@
         <v>930</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3751,7 +3782,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3768,7 +3799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3785,7 +3816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3802,12 +3833,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -3824,17 +3855,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3851,7 +3882,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -3868,7 +3899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -3885,7 +3916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3902,17 +3933,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -3929,7 +3960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -3946,7 +3977,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -3966,7 +3997,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -3983,12 +4014,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -4005,7 +4036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -4022,12 +4053,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -4044,7 +4075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -4061,7 +4092,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -4078,12 +4109,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
@@ -4100,7 +4131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,7 +4151,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -4137,7 +4168,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -4157,7 +4188,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -4174,7 +4205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
@@ -4191,7 +4222,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -4208,12 +4239,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
@@ -4230,7 +4261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -4247,7 +4278,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
@@ -4264,7 +4295,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,12 +4312,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
@@ -4303,7 +4334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
@@ -4320,7 +4351,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
@@ -4337,7 +4368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -4354,17 +4385,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
@@ -4381,12 +4412,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -4403,7 +4434,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
@@ -4420,7 +4451,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
@@ -4437,17 +4468,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -4464,12 +4495,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>114</v>
       </c>
@@ -4486,7 +4517,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>116</v>
       </c>
@@ -4503,7 +4534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
@@ -4520,7 +4551,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -4537,12 +4568,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
@@ -4559,7 +4590,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>125</v>
       </c>
@@ -4576,7 +4607,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>127</v>
       </c>
@@ -4593,7 +4624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>129</v>
       </c>
@@ -4610,7 +4641,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>132</v>
       </c>
@@ -4627,17 +4658,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>136</v>
       </c>
@@ -4654,7 +4685,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>138</v>
       </c>
@@ -4674,12 +4705,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
@@ -4696,7 +4727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
@@ -4713,7 +4744,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
@@ -4730,12 +4761,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>148</v>
       </c>
@@ -4755,7 +4786,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>150</v>
       </c>
@@ -4775,22 +4806,22 @@
         <v>988</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>155</v>
       </c>
@@ -4807,7 +4838,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>157</v>
       </c>
@@ -4827,27 +4858,27 @@
         <v>988</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>163</v>
       </c>
@@ -4864,7 +4895,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>165</v>
       </c>
@@ -4884,12 +4915,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>168</v>
       </c>
@@ -4906,12 +4937,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>171</v>
       </c>
@@ -4928,57 +4959,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>183</v>
       </c>
@@ -4995,17 +5026,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>188</v>
       </c>
@@ -5022,12 +5053,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>191</v>
       </c>
@@ -5047,12 +5078,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>194</v>
       </c>
@@ -5069,7 +5100,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>196</v>
       </c>
@@ -5086,52 +5117,52 @@
         <v>185</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>207</v>
       </c>
@@ -5148,7 +5179,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>209</v>
       </c>
@@ -5168,7 +5199,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>211</v>
       </c>
@@ -5185,77 +5216,77 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>227</v>
       </c>
@@ -5275,7 +5306,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>229</v>
       </c>
@@ -5292,7 +5323,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>231</v>
       </c>
@@ -5309,12 +5340,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>233</v>
       </c>
@@ -5331,12 +5362,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>236</v>
       </c>
@@ -5356,17 +5387,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>240</v>
       </c>
@@ -5386,47 +5417,47 @@
         <v>988</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>250</v>
       </c>
@@ -5443,7 +5474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>252</v>
       </c>
@@ -5463,12 +5494,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>255</v>
       </c>
@@ -5485,7 +5516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>257</v>
       </c>
@@ -5502,12 +5533,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>260</v>
       </c>
@@ -5524,7 +5555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>262</v>
       </c>
@@ -5541,7 +5572,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>264</v>
       </c>
@@ -5561,17 +5592,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>268</v>
       </c>
@@ -5588,7 +5619,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>270</v>
       </c>
@@ -5605,7 +5636,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>272</v>
       </c>
@@ -5622,12 +5653,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>275</v>
       </c>
@@ -5644,7 +5675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>277</v>
       </c>
@@ -5661,7 +5692,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>279</v>
       </c>
@@ -5681,12 +5712,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>282</v>
       </c>
@@ -5703,7 +5734,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>284</v>
       </c>
@@ -5720,12 +5751,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>287</v>
       </c>
@@ -5742,12 +5773,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>290</v>
       </c>
@@ -5764,62 +5795,62 @@
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>303</v>
       </c>
@@ -5836,17 +5867,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>307</v>
       </c>
@@ -5863,22 +5894,22 @@
         <v>107</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>312</v>
       </c>
@@ -5898,12 +5929,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>315</v>
       </c>
@@ -5920,7 +5951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>317</v>
       </c>
@@ -5940,47 +5971,47 @@
         <v>988</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>327</v>
       </c>
@@ -5997,7 +6028,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>329</v>
       </c>
@@ -6017,37 +6048,37 @@
         <v>988</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>337</v>
       </c>
@@ -6064,7 +6095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>339</v>
       </c>
@@ -6084,7 +6115,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>341</v>
       </c>
@@ -6101,17 +6132,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>345</v>
       </c>
@@ -6128,7 +6159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>347</v>
       </c>
@@ -6145,7 +6176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>348</v>
       </c>
@@ -6162,7 +6193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>350</v>
       </c>
@@ -6182,57 +6213,57 @@
         <v>988</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>362</v>
       </c>
@@ -6252,42 +6283,42 @@
         <v>988</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>371</v>
       </c>
@@ -6304,12 +6335,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>374</v>
       </c>
@@ -6326,7 +6357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>376</v>
       </c>
@@ -6343,77 +6374,77 @@
         <v>131</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>392</v>
       </c>
@@ -6430,12 +6461,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>395</v>
       </c>
@@ -6452,7 +6483,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>398</v>
       </c>
@@ -6469,7 +6500,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>400</v>
       </c>
@@ -6486,22 +6517,22 @@
         <v>933</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>405</v>
       </c>
@@ -6518,7 +6549,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>407</v>
       </c>
@@ -6535,12 +6566,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>410</v>
       </c>
@@ -6557,12 +6588,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>412</v>
       </c>
@@ -6579,7 +6610,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>413</v>
       </c>
@@ -6597,22 +6628,22 @@
       </c>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>417</v>
       </c>
@@ -6629,12 +6660,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>420</v>
       </c>
@@ -6651,7 +6682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>422</v>
       </c>
@@ -6668,7 +6699,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>424</v>
       </c>
@@ -6685,7 +6716,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>425</v>
       </c>
@@ -6702,7 +6733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>427</v>
       </c>
@@ -6719,32 +6750,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>434</v>
       </c>
@@ -6761,12 +6792,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>437</v>
       </c>
@@ -6783,37 +6814,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>445</v>
       </c>
@@ -6830,7 +6861,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>447</v>
       </c>
@@ -6847,7 +6878,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>449</v>
       </c>
@@ -6867,7 +6898,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>451</v>
       </c>
@@ -6887,7 +6918,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>453</v>
       </c>
@@ -6907,17 +6938,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>457</v>
       </c>
@@ -6934,12 +6965,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>460</v>
       </c>
@@ -6956,12 +6987,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>463</v>
       </c>
@@ -6978,7 +7009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>465</v>
       </c>
@@ -6995,7 +7026,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>466</v>
       </c>
@@ -7012,7 +7043,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>468</v>
       </c>
@@ -7029,7 +7060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>470</v>
       </c>
@@ -7046,7 +7077,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>472</v>
       </c>
@@ -7063,17 +7094,17 @@
         <v>933</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>476</v>
       </c>
@@ -7090,7 +7121,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>477</v>
       </c>
@@ -7107,7 +7138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>479</v>
       </c>
@@ -7124,7 +7155,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>481</v>
       </c>
@@ -7141,7 +7172,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>483</v>
       </c>
@@ -7158,7 +7189,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>485</v>
       </c>
@@ -7175,7 +7206,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>487</v>
       </c>
@@ -7192,7 +7223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>489</v>
       </c>
@@ -7209,7 +7240,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>491</v>
       </c>
@@ -7229,7 +7260,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>493</v>
       </c>
@@ -7249,7 +7280,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>495</v>
       </c>
@@ -7266,7 +7297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>497</v>
       </c>
@@ -7283,7 +7314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>499</v>
       </c>
@@ -7300,7 +7331,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>501</v>
       </c>
@@ -7317,7 +7348,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>503</v>
       </c>
@@ -7334,7 +7365,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>505</v>
       </c>
@@ -7351,7 +7382,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>507</v>
       </c>
@@ -7368,12 +7399,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>510</v>
       </c>
@@ -7390,12 +7421,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>513</v>
       </c>
@@ -7412,7 +7443,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>515</v>
       </c>
@@ -7429,7 +7460,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>517</v>
       </c>
@@ -7446,12 +7477,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>520</v>
       </c>
@@ -7468,17 +7499,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>524</v>
       </c>
@@ -7498,17 +7529,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>528</v>
       </c>
@@ -7525,7 +7556,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>530</v>
       </c>
@@ -7542,12 +7573,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>533</v>
       </c>
@@ -7564,17 +7595,17 @@
         <v>933</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>537</v>
       </c>
@@ -7591,27 +7622,27 @@
         <v>933</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>543</v>
       </c>
@@ -7628,67 +7659,67 @@
         <v>46</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>557</v>
       </c>
@@ -7705,72 +7736,72 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>572</v>
       </c>
@@ -7787,22 +7818,22 @@
         <v>107</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>577</v>
       </c>
@@ -7819,7 +7850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>579</v>
       </c>
@@ -7836,7 +7867,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>580</v>
       </c>
@@ -7853,7 +7884,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>582</v>
       </c>
@@ -7870,17 +7901,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>586</v>
       </c>
@@ -7897,7 +7928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>588</v>
       </c>
@@ -7917,7 +7948,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>590</v>
       </c>
@@ -7934,7 +7965,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>592</v>
       </c>
@@ -7951,22 +7982,22 @@
         <v>933</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>597</v>
       </c>
@@ -7983,7 +8014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>599</v>
       </c>
@@ -8000,7 +8031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>600</v>
       </c>
@@ -8020,17 +8051,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>604</v>
       </c>
@@ -8047,12 +8078,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>607</v>
       </c>
@@ -8069,12 +8100,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>610</v>
       </c>
@@ -8091,7 +8122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>612</v>
       </c>
@@ -8105,7 +8136,7 @@
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>613</v>
       </c>
@@ -8119,7 +8150,7 @@
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>614</v>
       </c>
@@ -8133,7 +8164,7 @@
       <c r="E421" s="6"/>
       <c r="F421" s="6"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>615</v>
       </c>
@@ -8147,7 +8178,7 @@
       <c r="E422" s="6"/>
       <c r="F422" s="6"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>616</v>
       </c>
@@ -8161,7 +8192,7 @@
       <c r="E423" s="6"/>
       <c r="F423" s="6"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>617</v>
       </c>
@@ -8175,7 +8206,7 @@
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>618</v>
       </c>
@@ -8189,7 +8220,7 @@
       <c r="E425" s="6"/>
       <c r="F425" s="6"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>619</v>
       </c>
@@ -8203,7 +8234,7 @@
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>620</v>
       </c>
@@ -8217,7 +8248,7 @@
       <c r="E427" s="6"/>
       <c r="F427" s="6"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>621</v>
       </c>
@@ -8231,7 +8262,7 @@
       <c r="E428" s="6"/>
       <c r="F428" s="6"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>622</v>
       </c>
@@ -8245,7 +8276,7 @@
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>623</v>
       </c>
@@ -8259,7 +8290,7 @@
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>624</v>
       </c>
@@ -8273,7 +8304,7 @@
       <c r="E431" s="6"/>
       <c r="F431" s="6"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>625</v>
       </c>
@@ -8287,7 +8318,7 @@
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>626</v>
       </c>
@@ -8301,7 +8332,7 @@
       <c r="E433" s="6"/>
       <c r="F433" s="6"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>627</v>
       </c>
@@ -8315,7 +8346,7 @@
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>628</v>
       </c>
@@ -8329,7 +8360,7 @@
       <c r="E435" s="6"/>
       <c r="F435" s="6"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>629</v>
       </c>
@@ -8343,7 +8374,7 @@
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>630</v>
       </c>
@@ -8357,7 +8388,7 @@
       <c r="E437" s="6"/>
       <c r="F437" s="6"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>631</v>
       </c>
@@ -8371,7 +8402,7 @@
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>632</v>
       </c>
@@ -8385,7 +8416,7 @@
       <c r="E439" s="6"/>
       <c r="F439" s="6"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>633</v>
       </c>
@@ -8399,7 +8430,7 @@
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>634</v>
       </c>
@@ -8413,7 +8444,7 @@
       <c r="E441" s="6"/>
       <c r="F441" s="6"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>635</v>
       </c>
@@ -8427,32 +8458,32 @@
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>641</v>
       </c>
@@ -8469,52 +8500,52 @@
         <v>75</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>652</v>
       </c>
@@ -8534,22 +8565,22 @@
         <v>988</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>657</v>
       </c>
@@ -8566,12 +8597,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>660</v>
       </c>
@@ -8588,12 +8619,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>663</v>
       </c>
@@ -8610,22 +8641,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>668</v>
       </c>
@@ -8642,7 +8673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>670</v>
       </c>
@@ -8659,7 +8690,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>672</v>
       </c>
@@ -8676,7 +8707,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>674</v>
       </c>
@@ -8693,7 +8724,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>676</v>
       </c>
@@ -8713,12 +8744,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>679</v>
       </c>
@@ -8735,7 +8766,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>681</v>
       </c>
@@ -8752,7 +8783,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>682</v>
       </c>
@@ -8772,7 +8803,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>684</v>
       </c>
@@ -8789,7 +8820,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>686</v>
       </c>
@@ -8809,7 +8840,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>688</v>
       </c>
@@ -8826,7 +8857,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>690</v>
       </c>
@@ -8843,7 +8874,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>692</v>
       </c>
@@ -8860,7 +8891,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>694</v>
       </c>
@@ -8877,17 +8908,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>698</v>
       </c>
@@ -8904,7 +8935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>700</v>
       </c>
@@ -8921,7 +8952,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>702</v>
       </c>
@@ -8938,7 +8969,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
         <v>704</v>
       </c>
@@ -8956,7 +8987,7 @@
       </c>
       <c r="F490" s="6"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>705</v>
       </c>
@@ -8973,12 +9004,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>708</v>
       </c>
@@ -8995,7 +9026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>710</v>
       </c>
@@ -9012,7 +9043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>712</v>
       </c>
@@ -9029,17 +9060,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>716</v>
       </c>
@@ -9056,7 +9087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>718</v>
       </c>
@@ -9073,17 +9104,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>722</v>
       </c>
@@ -9100,7 +9131,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>724</v>
       </c>
@@ -9117,12 +9148,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>727</v>
       </c>
@@ -9139,7 +9170,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>729</v>
       </c>
@@ -9156,7 +9187,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>731</v>
       </c>
@@ -9173,7 +9204,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>733</v>
       </c>
@@ -9190,7 +9221,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>735</v>
       </c>
@@ -9207,7 +9238,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>737</v>
       </c>
@@ -9224,17 +9255,17 @@
         <v>933</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>741</v>
       </c>
@@ -9251,12 +9282,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>744</v>
       </c>
@@ -9273,12 +9304,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>747</v>
       </c>
@@ -9295,7 +9326,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>749</v>
       </c>
@@ -9312,17 +9343,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>752</v>
       </c>
@@ -9339,7 +9370,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>753</v>
       </c>
@@ -9356,32 +9387,32 @@
         <v>70</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>760</v>
       </c>
@@ -9398,62 +9429,62 @@
         <v>75</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>773</v>
       </c>
@@ -9470,32 +9501,32 @@
         <v>83</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>779</v>
       </c>
@@ -9512,7 +9543,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>781</v>
       </c>
@@ -9529,7 +9560,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>783</v>
       </c>
@@ -9546,12 +9577,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>785</v>
       </c>
@@ -9568,12 +9599,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>788</v>
       </c>
@@ -9590,12 +9621,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>790</v>
       </c>
@@ -9612,12 +9643,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>793</v>
       </c>
@@ -9634,27 +9665,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>798</v>
       </c>
@@ -9671,37 +9702,37 @@
         <v>86</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>806</v>
       </c>
@@ -9718,57 +9749,57 @@
         <v>933</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>818</v>
       </c>
@@ -9785,73 +9816,76 @@
         <v>933</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A588" s="1" t="s">
+    <row r="588" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="B588" s="2" t="s">
+      <c r="B588" s="8" t="s">
         <v>990</v>
       </c>
-      <c r="C588" s="2" t="s">
+      <c r="C588" s="8" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D588" s="8"/>
+      <c r="E588" s="8"/>
+      <c r="F588" s="8"/>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>832</v>
       </c>
@@ -9868,82 +9902,100 @@
         <v>933</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A600" s="1" t="s">
+    <row r="600" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="7" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B600" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C600" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D600" s="8"/>
+      <c r="E600" s="8"/>
+      <c r="F600" s="8"/>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A605" s="1" t="s">
+    <row r="605" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A605" s="7" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B605" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C605" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D605" s="8"/>
+      <c r="E605" s="8"/>
+      <c r="F605" s="8"/>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>849</v>
       </c>
@@ -9963,98 +10015,128 @@
         <v>988</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A611" s="1" t="s">
+    <row r="611" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A611" s="7" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A612" s="1" t="s">
+      <c r="B611" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C611" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D611" s="8"/>
+      <c r="E611" s="8"/>
+      <c r="F611" s="8"/>
+    </row>
+    <row r="612" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A612" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="B612" s="2" t="s">
+      <c r="B612" s="8" t="s">
         <v>1099</v>
       </c>
-      <c r="C612" s="2" t="s">
+      <c r="C612" s="8" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A613" s="1" t="s">
+      <c r="D612" s="8"/>
+      <c r="E612" s="8"/>
+      <c r="F612" s="8"/>
+    </row>
+    <row r="613" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="7" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B613" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C613" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D613" s="8"/>
+      <c r="E613" s="8"/>
+      <c r="F613" s="8"/>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A617" s="1" t="s">
+    <row r="617" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A617" s="7" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B617" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C617" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D617" s="8"/>
+      <c r="E617" s="8"/>
+      <c r="F617" s="8"/>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
         <v>867</v>
       </c>
@@ -10072,17 +10154,17 @@
       </c>
       <c r="F626" s="6"/>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
         <v>870</v>
       </c>
@@ -10100,7 +10182,7 @@
       </c>
       <c r="F629" s="6"/>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>872</v>
       </c>
@@ -10117,77 +10199,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>888</v>
       </c>
@@ -10204,7 +10286,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
         <v>890</v>
       </c>
@@ -10224,32 +10306,32 @@
         <v>988</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>897</v>
       </c>
@@ -10266,62 +10348,62 @@
         <v>101</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>910</v>
       </c>
@@ -10338,52 +10420,52 @@
         <v>75</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>921</v>
       </c>
@@ -10400,17 +10482,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
         <v>925</v>
       </c>
@@ -10428,7 +10510,7 @@
       </c>
       <c r="F677" s="6"/>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>991</v>
       </c>
@@ -10439,7 +10521,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>992</v>
       </c>
@@ -10450,7 +10532,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>993</v>
       </c>
@@ -10461,7 +10543,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>994</v>
       </c>
@@ -10472,7 +10554,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>995</v>
       </c>
@@ -10483,7 +10565,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>996</v>
       </c>
@@ -10494,7 +10576,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>997</v>
       </c>
@@ -10505,7 +10587,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>998</v>
       </c>
@@ -10516,7 +10598,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>1096</v>
       </c>
@@ -10527,7 +10609,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>999</v>
       </c>
@@ -10538,7 +10620,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>1000</v>
       </c>
@@ -10549,7 +10631,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>1001</v>
       </c>
@@ -10560,7 +10642,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>1002</v>
       </c>
@@ -10571,7 +10653,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>1003</v>
       </c>
@@ -10582,7 +10664,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>1004</v>
       </c>
@@ -10593,7 +10675,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>1005</v>
       </c>
@@ -10604,7 +10686,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>1006</v>
       </c>
@@ -10615,7 +10697,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>1007</v>
       </c>
@@ -10626,7 +10708,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>1008</v>
       </c>
@@ -10637,7 +10719,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>1009</v>
       </c>
@@ -10648,7 +10730,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>1010</v>
       </c>
@@ -10659,7 +10741,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>1011</v>
       </c>
@@ -10670,7 +10752,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>1012</v>
       </c>
@@ -10681,7 +10763,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>1013</v>
       </c>
@@ -10692,7 +10774,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>1014</v>
       </c>
@@ -10703,7 +10785,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>1015</v>
       </c>
@@ -10714,7 +10796,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>1016</v>
       </c>
@@ -10725,7 +10807,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>1017</v>
       </c>
@@ -10736,7 +10818,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>1018</v>
       </c>
@@ -10747,7 +10829,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>1019</v>
       </c>
@@ -10758,7 +10840,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>1020</v>
       </c>
@@ -10769,7 +10851,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>1021</v>
       </c>
@@ -10780,7 +10862,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>1022</v>
       </c>
@@ -10791,7 +10873,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>1023</v>
       </c>
@@ -10802,7 +10884,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>1024</v>
       </c>
@@ -10813,7 +10895,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>1025</v>
       </c>
@@ -10824,7 +10906,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>1026</v>
       </c>
@@ -10835,7 +10917,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>1027</v>
       </c>
@@ -10846,7 +10928,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>1028</v>
       </c>
@@ -10857,7 +10939,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>1029</v>
       </c>
@@ -10868,7 +10950,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>1030</v>
       </c>
@@ -10879,7 +10961,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>1031</v>
       </c>
@@ -10890,7 +10972,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
         <v>1032</v>
       </c>
@@ -10901,7 +10983,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>1033</v>
       </c>
@@ -10912,7 +10994,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>1034</v>
       </c>
@@ -10923,7 +11005,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>1035</v>
       </c>
@@ -10934,7 +11016,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>1036</v>
       </c>
@@ -10945,7 +11027,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>1037</v>
       </c>
@@ -10956,7 +11038,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
         <v>1038</v>
       </c>
@@ -10967,7 +11049,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>1039</v>
       </c>
@@ -10978,7 +11060,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>1040</v>
       </c>
@@ -10989,7 +11071,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>1090</v>
       </c>
@@ -11000,7 +11082,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>1093</v>
       </c>

--- a/data-input/country-codes/country-codes.xlsx
+++ b/data-input/country-codes/country-codes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="1119">
   <si>
     <t>code</t>
   </si>
@@ -3342,6 +3342,45 @@
   </si>
   <si>
     <t>Asia (excluding Middle East)</t>
+  </si>
+  <si>
+    <t>WO-MER</t>
+  </si>
+  <si>
+    <t>XA-MER</t>
+  </si>
+  <si>
+    <t>XF-MER</t>
+  </si>
+  <si>
+    <t>XL-MER</t>
+  </si>
+  <si>
+    <t>XN-MER</t>
+  </si>
+  <si>
+    <t>XR-MER</t>
+  </si>
+  <si>
+    <t>World (Market Exchange Rate)</t>
+  </si>
+  <si>
+    <t>Asia (excluding Middle East), Market Exchange Rate</t>
+  </si>
+  <si>
+    <t>World, Market Exchange Rate</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa, Market Exchange Rate</t>
+  </si>
+  <si>
+    <t>Latin America, Market Exchange Rate</t>
+  </si>
+  <si>
+    <t>Middle East and Northern Africa, Market Exchange Rate</t>
+  </si>
+  <si>
+    <t>Russia and Ukraine, Market Exchange Rate</t>
   </si>
 </sst>
 </file>
@@ -3713,11 +3752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F730"/>
+  <dimension ref="A1:F736"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A603" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C611" sqref="C611"/>
+      <pane ySplit="1" topLeftCell="A720" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C736" sqref="C736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11093,6 +11132,72 @@
         <v>1095</v>
       </c>
     </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C733" s="2" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C734" s="2" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C736" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-input/country-codes/country-codes.xlsx
+++ b/data-input/country-codes/country-codes.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amory\Documents\GitHub\wid-world\data-input\country-codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasblanchet/GitHub/wid-world/data-input/country-codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9A48EAD9-86BB-0C4C-B970-206769246B84}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20780" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Country Codes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1135">
   <si>
     <t>code</t>
   </si>
@@ -3381,12 +3382,60 @@
   </si>
   <si>
     <t>Russia and Ukraine, Market Exchange Rate</t>
+  </si>
+  <si>
+    <t>DE-BD</t>
+  </si>
+  <si>
+    <t>DE-BY</t>
+  </si>
+  <si>
+    <t>DE-HB</t>
+  </si>
+  <si>
+    <t>DE-HH</t>
+  </si>
+  <si>
+    <t>DE-HE</t>
+  </si>
+  <si>
+    <t>DE-PR</t>
+  </si>
+  <si>
+    <t>DE-SN</t>
+  </si>
+  <si>
+    <t>DE-WU</t>
+  </si>
+  <si>
+    <t>Baden</t>
+  </si>
+  <si>
+    <t>Bavaria</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Hesse</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Prussia</t>
+  </si>
+  <si>
+    <t>Saxony</t>
+  </si>
+  <si>
+    <t>Wurttemberg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3751,25 +3800,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F736"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F744"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A720" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C736" sqref="C736"/>
+      <pane ySplit="1" topLeftCell="A717" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D739" sqref="D739"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="32" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3789,22 +3838,22 @@
         <v>930</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3821,7 +3870,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3838,7 +3887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3855,7 +3904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3872,12 +3921,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -3894,17 +3943,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3921,7 +3970,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -3938,7 +3987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -3955,7 +4004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3972,17 +4021,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -3999,7 +4048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -4016,7 +4065,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -4036,7 +4085,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -4053,12 +4102,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -4075,7 +4124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -4092,12 +4141,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -4114,7 +4163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -4131,7 +4180,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -4148,12 +4197,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,7 +4219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -4190,7 +4239,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -4207,7 +4256,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -4227,7 +4276,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -4244,7 +4293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
@@ -4261,7 +4310,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -4278,12 +4327,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
@@ -4300,7 +4349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -4317,7 +4366,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
@@ -4334,7 +4383,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -4351,12 +4400,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
@@ -4373,7 +4422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
@@ -4390,7 +4439,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
@@ -4407,7 +4456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -4424,17 +4473,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
@@ -4451,12 +4500,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -4473,7 +4522,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
@@ -4490,7 +4539,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
@@ -4507,17 +4556,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -4534,12 +4583,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>114</v>
       </c>
@@ -4556,7 +4605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>116</v>
       </c>
@@ -4573,7 +4622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
@@ -4590,7 +4639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -4607,12 +4656,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
@@ -4629,7 +4678,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>125</v>
       </c>
@@ -4646,7 +4695,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>127</v>
       </c>
@@ -4663,7 +4712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>129</v>
       </c>
@@ -4680,7 +4729,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>132</v>
       </c>
@@ -4697,17 +4746,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>136</v>
       </c>
@@ -4724,7 +4773,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>138</v>
       </c>
@@ -4744,12 +4793,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
@@ -4766,7 +4815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
@@ -4783,7 +4832,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
@@ -4800,12 +4849,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>148</v>
       </c>
@@ -4825,7 +4874,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>150</v>
       </c>
@@ -4845,22 +4894,22 @@
         <v>988</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>155</v>
       </c>
@@ -4877,7 +4926,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>157</v>
       </c>
@@ -4897,27 +4946,27 @@
         <v>988</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>163</v>
       </c>
@@ -4934,7 +4983,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>165</v>
       </c>
@@ -4954,12 +5003,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>168</v>
       </c>
@@ -4976,12 +5025,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>171</v>
       </c>
@@ -4998,57 +5047,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>183</v>
       </c>
@@ -5065,17 +5114,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>188</v>
       </c>
@@ -5092,12 +5141,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>191</v>
       </c>
@@ -5117,12 +5166,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>194</v>
       </c>
@@ -5139,7 +5188,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>196</v>
       </c>
@@ -5156,52 +5205,52 @@
         <v>185</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>207</v>
       </c>
@@ -5218,7 +5267,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>209</v>
       </c>
@@ -5238,7 +5287,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>211</v>
       </c>
@@ -5255,77 +5304,77 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>227</v>
       </c>
@@ -5345,7 +5394,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>229</v>
       </c>
@@ -5362,7 +5411,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>231</v>
       </c>
@@ -5379,12 +5428,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>233</v>
       </c>
@@ -5401,12 +5450,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>236</v>
       </c>
@@ -5426,17 +5475,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>240</v>
       </c>
@@ -5456,47 +5505,47 @@
         <v>988</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>250</v>
       </c>
@@ -5513,7 +5562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>252</v>
       </c>
@@ -5533,12 +5582,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>255</v>
       </c>
@@ -5555,7 +5604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>257</v>
       </c>
@@ -5572,12 +5621,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>260</v>
       </c>
@@ -5594,7 +5643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>262</v>
       </c>
@@ -5611,7 +5660,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>264</v>
       </c>
@@ -5631,17 +5680,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>268</v>
       </c>
@@ -5658,7 +5707,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>270</v>
       </c>
@@ -5675,7 +5724,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>272</v>
       </c>
@@ -5692,12 +5741,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>275</v>
       </c>
@@ -5714,7 +5763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>277</v>
       </c>
@@ -5731,7 +5780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>279</v>
       </c>
@@ -5751,12 +5800,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>282</v>
       </c>
@@ -5773,7 +5822,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>284</v>
       </c>
@@ -5790,12 +5839,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>287</v>
       </c>
@@ -5812,12 +5861,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>290</v>
       </c>
@@ -5834,62 +5883,62 @@
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>303</v>
       </c>
@@ -5906,17 +5955,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>307</v>
       </c>
@@ -5933,22 +5982,22 @@
         <v>107</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>312</v>
       </c>
@@ -5968,12 +6017,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>315</v>
       </c>
@@ -5990,7 +6039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>317</v>
       </c>
@@ -6010,47 +6059,47 @@
         <v>988</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>327</v>
       </c>
@@ -6067,7 +6116,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>329</v>
       </c>
@@ -6087,37 +6136,37 @@
         <v>988</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>337</v>
       </c>
@@ -6134,7 +6183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>339</v>
       </c>
@@ -6154,7 +6203,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>341</v>
       </c>
@@ -6171,17 +6220,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>345</v>
       </c>
@@ -6198,7 +6247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>347</v>
       </c>
@@ -6215,7 +6264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>348</v>
       </c>
@@ -6232,7 +6281,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>350</v>
       </c>
@@ -6252,57 +6301,57 @@
         <v>988</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>362</v>
       </c>
@@ -6322,42 +6371,42 @@
         <v>988</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>371</v>
       </c>
@@ -6374,12 +6423,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>374</v>
       </c>
@@ -6396,7 +6445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>376</v>
       </c>
@@ -6413,77 +6462,77 @@
         <v>131</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>392</v>
       </c>
@@ -6500,12 +6549,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>395</v>
       </c>
@@ -6522,7 +6571,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>398</v>
       </c>
@@ -6539,7 +6588,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>400</v>
       </c>
@@ -6556,22 +6605,22 @@
         <v>933</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>405</v>
       </c>
@@ -6588,7 +6637,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>407</v>
       </c>
@@ -6605,12 +6654,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>410</v>
       </c>
@@ -6627,12 +6676,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>412</v>
       </c>
@@ -6649,7 +6698,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
         <v>413</v>
       </c>
@@ -6667,22 +6716,22 @@
       </c>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>417</v>
       </c>
@@ -6699,12 +6748,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>420</v>
       </c>
@@ -6721,7 +6770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>422</v>
       </c>
@@ -6738,7 +6787,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>424</v>
       </c>
@@ -6755,7 +6804,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>425</v>
       </c>
@@ -6772,7 +6821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>427</v>
       </c>
@@ -6789,32 +6838,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>434</v>
       </c>
@@ -6831,12 +6880,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>437</v>
       </c>
@@ -6853,37 +6902,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>445</v>
       </c>
@@ -6900,7 +6949,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>447</v>
       </c>
@@ -6917,7 +6966,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>449</v>
       </c>
@@ -6937,7 +6986,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>451</v>
       </c>
@@ -6957,7 +7006,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>453</v>
       </c>
@@ -6977,17 +7026,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>457</v>
       </c>
@@ -7004,12 +7053,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>460</v>
       </c>
@@ -7026,12 +7075,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>463</v>
       </c>
@@ -7048,7 +7097,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>465</v>
       </c>
@@ -7065,7 +7114,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>466</v>
       </c>
@@ -7082,7 +7131,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>468</v>
       </c>
@@ -7099,7 +7148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>470</v>
       </c>
@@ -7116,7 +7165,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>472</v>
       </c>
@@ -7133,17 +7182,17 @@
         <v>933</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>476</v>
       </c>
@@ -7160,7 +7209,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>477</v>
       </c>
@@ -7177,7 +7226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>479</v>
       </c>
@@ -7194,7 +7243,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>481</v>
       </c>
@@ -7211,7 +7260,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>483</v>
       </c>
@@ -7228,7 +7277,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>485</v>
       </c>
@@ -7245,7 +7294,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>487</v>
       </c>
@@ -7262,7 +7311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>489</v>
       </c>
@@ -7279,7 +7328,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>491</v>
       </c>
@@ -7299,7 +7348,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>493</v>
       </c>
@@ -7319,7 +7368,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>495</v>
       </c>
@@ -7336,7 +7385,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>497</v>
       </c>
@@ -7353,7 +7402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>499</v>
       </c>
@@ -7370,7 +7419,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>501</v>
       </c>
@@ -7387,7 +7436,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>503</v>
       </c>
@@ -7404,7 +7453,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>505</v>
       </c>
@@ -7421,7 +7470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>507</v>
       </c>
@@ -7438,12 +7487,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>510</v>
       </c>
@@ -7460,12 +7509,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>513</v>
       </c>
@@ -7482,7 +7531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>515</v>
       </c>
@@ -7499,7 +7548,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>517</v>
       </c>
@@ -7516,12 +7565,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>520</v>
       </c>
@@ -7538,17 +7587,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>524</v>
       </c>
@@ -7568,17 +7617,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>528</v>
       </c>
@@ -7595,7 +7644,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>530</v>
       </c>
@@ -7612,12 +7661,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>533</v>
       </c>
@@ -7634,17 +7683,17 @@
         <v>933</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>537</v>
       </c>
@@ -7661,27 +7710,27 @@
         <v>933</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>543</v>
       </c>
@@ -7698,67 +7747,67 @@
         <v>46</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>557</v>
       </c>
@@ -7775,72 +7824,72 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>572</v>
       </c>
@@ -7857,22 +7906,22 @@
         <v>107</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>577</v>
       </c>
@@ -7889,7 +7938,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>579</v>
       </c>
@@ -7906,7 +7955,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>580</v>
       </c>
@@ -7923,7 +7972,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>582</v>
       </c>
@@ -7940,17 +7989,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>586</v>
       </c>
@@ -7967,7 +8016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>588</v>
       </c>
@@ -7987,7 +8036,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>590</v>
       </c>
@@ -8004,7 +8053,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>592</v>
       </c>
@@ -8021,22 +8070,22 @@
         <v>933</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>597</v>
       </c>
@@ -8053,7 +8102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>599</v>
       </c>
@@ -8070,7 +8119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>600</v>
       </c>
@@ -8090,17 +8139,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>604</v>
       </c>
@@ -8117,12 +8166,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>607</v>
       </c>
@@ -8139,12 +8188,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>610</v>
       </c>
@@ -8161,7 +8210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="5" t="s">
         <v>612</v>
       </c>
@@ -8175,7 +8224,7 @@
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="5" t="s">
         <v>613</v>
       </c>
@@ -8189,7 +8238,7 @@
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
         <v>614</v>
       </c>
@@ -8203,7 +8252,7 @@
       <c r="E421" s="6"/>
       <c r="F421" s="6"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="5" t="s">
         <v>615</v>
       </c>
@@ -8217,7 +8266,7 @@
       <c r="E422" s="6"/>
       <c r="F422" s="6"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
         <v>616</v>
       </c>
@@ -8231,7 +8280,7 @@
       <c r="E423" s="6"/>
       <c r="F423" s="6"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="5" t="s">
         <v>617</v>
       </c>
@@ -8245,7 +8294,7 @@
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
         <v>618</v>
       </c>
@@ -8259,7 +8308,7 @@
       <c r="E425" s="6"/>
       <c r="F425" s="6"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="5" t="s">
         <v>619</v>
       </c>
@@ -8273,7 +8322,7 @@
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="5" t="s">
         <v>620</v>
       </c>
@@ -8287,7 +8336,7 @@
       <c r="E427" s="6"/>
       <c r="F427" s="6"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="5" t="s">
         <v>621</v>
       </c>
@@ -8301,7 +8350,7 @@
       <c r="E428" s="6"/>
       <c r="F428" s="6"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="5" t="s">
         <v>622</v>
       </c>
@@ -8315,7 +8364,7 @@
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="5" t="s">
         <v>623</v>
       </c>
@@ -8329,7 +8378,7 @@
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="5" t="s">
         <v>624</v>
       </c>
@@ -8343,7 +8392,7 @@
       <c r="E431" s="6"/>
       <c r="F431" s="6"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" s="5" t="s">
         <v>625</v>
       </c>
@@ -8357,7 +8406,7 @@
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="5" t="s">
         <v>626</v>
       </c>
@@ -8371,7 +8420,7 @@
       <c r="E433" s="6"/>
       <c r="F433" s="6"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" s="5" t="s">
         <v>627</v>
       </c>
@@ -8385,7 +8434,7 @@
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="5" t="s">
         <v>628</v>
       </c>
@@ -8399,7 +8448,7 @@
       <c r="E435" s="6"/>
       <c r="F435" s="6"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" s="5" t="s">
         <v>629</v>
       </c>
@@ -8413,7 +8462,7 @@
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
         <v>630</v>
       </c>
@@ -8427,7 +8476,7 @@
       <c r="E437" s="6"/>
       <c r="F437" s="6"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" s="5" t="s">
         <v>631</v>
       </c>
@@ -8441,7 +8490,7 @@
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" s="5" t="s">
         <v>632</v>
       </c>
@@ -8455,7 +8504,7 @@
       <c r="E439" s="6"/>
       <c r="F439" s="6"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" s="5" t="s">
         <v>633</v>
       </c>
@@ -8469,7 +8518,7 @@
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" s="5" t="s">
         <v>634</v>
       </c>
@@ -8483,7 +8532,7 @@
       <c r="E441" s="6"/>
       <c r="F441" s="6"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" s="5" t="s">
         <v>635</v>
       </c>
@@ -8497,32 +8546,32 @@
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>641</v>
       </c>
@@ -8539,52 +8588,52 @@
         <v>75</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>652</v>
       </c>
@@ -8604,22 +8653,22 @@
         <v>988</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>657</v>
       </c>
@@ -8636,12 +8685,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>660</v>
       </c>
@@ -8658,12 +8707,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>663</v>
       </c>
@@ -8680,22 +8729,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>668</v>
       </c>
@@ -8712,7 +8761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>670</v>
       </c>
@@ -8729,7 +8778,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>672</v>
       </c>
@@ -8746,7 +8795,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>674</v>
       </c>
@@ -8763,7 +8812,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>676</v>
       </c>
@@ -8783,12 +8832,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>679</v>
       </c>
@@ -8805,7 +8854,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>681</v>
       </c>
@@ -8822,7 +8871,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>682</v>
       </c>
@@ -8842,7 +8891,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>684</v>
       </c>
@@ -8859,7 +8908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>686</v>
       </c>
@@ -8879,7 +8928,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>688</v>
       </c>
@@ -8896,7 +8945,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>690</v>
       </c>
@@ -8913,7 +8962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>692</v>
       </c>
@@ -8930,7 +8979,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>694</v>
       </c>
@@ -8947,17 +8996,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>698</v>
       </c>
@@ -8974,7 +9023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>700</v>
       </c>
@@ -8991,7 +9040,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>702</v>
       </c>
@@ -9008,7 +9057,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" s="5" t="s">
         <v>704</v>
       </c>
@@ -9026,7 +9075,7 @@
       </c>
       <c r="F490" s="6"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>705</v>
       </c>
@@ -9043,12 +9092,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>708</v>
       </c>
@@ -9065,7 +9114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>710</v>
       </c>
@@ -9082,7 +9131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>712</v>
       </c>
@@ -9099,17 +9148,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>716</v>
       </c>
@@ -9126,7 +9175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>718</v>
       </c>
@@ -9143,17 +9192,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>722</v>
       </c>
@@ -9170,7 +9219,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>724</v>
       </c>
@@ -9187,12 +9236,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>727</v>
       </c>
@@ -9209,7 +9258,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>729</v>
       </c>
@@ -9226,7 +9275,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>731</v>
       </c>
@@ -9243,7 +9292,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>733</v>
       </c>
@@ -9260,7 +9309,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>735</v>
       </c>
@@ -9277,7 +9326,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>737</v>
       </c>
@@ -9294,17 +9343,17 @@
         <v>933</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>741</v>
       </c>
@@ -9321,12 +9370,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>744</v>
       </c>
@@ -9343,12 +9392,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>747</v>
       </c>
@@ -9365,7 +9414,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>749</v>
       </c>
@@ -9382,17 +9431,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>752</v>
       </c>
@@ -9409,7 +9458,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>753</v>
       </c>
@@ -9426,32 +9475,32 @@
         <v>70</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>760</v>
       </c>
@@ -9468,62 +9517,62 @@
         <v>75</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>773</v>
       </c>
@@ -9540,32 +9589,32 @@
         <v>83</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>779</v>
       </c>
@@ -9582,7 +9631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>781</v>
       </c>
@@ -9599,7 +9648,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>783</v>
       </c>
@@ -9616,12 +9665,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>785</v>
       </c>
@@ -9638,12 +9687,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>788</v>
       </c>
@@ -9660,12 +9709,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>790</v>
       </c>
@@ -9682,12 +9731,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>793</v>
       </c>
@@ -9704,27 +9753,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>798</v>
       </c>
@@ -9741,37 +9790,37 @@
         <v>86</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>806</v>
       </c>
@@ -9788,57 +9837,57 @@
         <v>933</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>818</v>
       </c>
@@ -9855,47 +9904,47 @@
         <v>933</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="588" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A588" s="7" t="s">
         <v>828</v>
       </c>
@@ -9909,22 +9958,22 @@
       <c r="E588" s="8"/>
       <c r="F588" s="8"/>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>832</v>
       </c>
@@ -9941,42 +9990,42 @@
         <v>933</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="600" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A600" s="7" t="s">
         <v>841</v>
       </c>
@@ -9990,27 +10039,27 @@
       <c r="E600" s="8"/>
       <c r="F600" s="8"/>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="605" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" s="7" t="s">
         <v>846</v>
       </c>
@@ -10024,17 +10073,17 @@
       <c r="E605" s="8"/>
       <c r="F605" s="8"/>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>849</v>
       </c>
@@ -10054,17 +10103,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="611" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A611" s="7" t="s">
         <v>852</v>
       </c>
@@ -10078,7 +10127,7 @@
       <c r="E611" s="8"/>
       <c r="F611" s="8"/>
     </row>
-    <row r="612" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" s="7" t="s">
         <v>853</v>
       </c>
@@ -10092,7 +10141,7 @@
       <c r="E612" s="8"/>
       <c r="F612" s="8"/>
     </row>
-    <row r="613" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A613" s="7" t="s">
         <v>854</v>
       </c>
@@ -10106,22 +10155,22 @@
       <c r="E613" s="8"/>
       <c r="F613" s="8"/>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="617" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A617" s="7" t="s">
         <v>858</v>
       </c>
@@ -10135,47 +10184,47 @@
       <c r="E617" s="8"/>
       <c r="F617" s="8"/>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626" s="5" t="s">
         <v>867</v>
       </c>
@@ -10193,17 +10242,17 @@
       </c>
       <c r="F626" s="6"/>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629" s="5" t="s">
         <v>870</v>
       </c>
@@ -10221,7 +10270,7 @@
       </c>
       <c r="F629" s="6"/>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>872</v>
       </c>
@@ -10238,77 +10287,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
         <v>888</v>
       </c>
@@ -10325,7 +10374,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A646" s="5" t="s">
         <v>890</v>
       </c>
@@ -10345,32 +10394,32 @@
         <v>988</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
         <v>897</v>
       </c>
@@ -10387,62 +10436,62 @@
         <v>101</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
         <v>910</v>
       </c>
@@ -10459,52 +10508,52 @@
         <v>75</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
         <v>921</v>
       </c>
@@ -10521,17 +10570,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A677" s="5" t="s">
         <v>925</v>
       </c>
@@ -10549,7 +10598,7 @@
       </c>
       <c r="F677" s="6"/>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
         <v>991</v>
       </c>
@@ -10560,7 +10609,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
         <v>992</v>
       </c>
@@ -10571,7 +10620,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
         <v>993</v>
       </c>
@@ -10582,7 +10631,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
         <v>994</v>
       </c>
@@ -10593,7 +10642,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
         <v>995</v>
       </c>
@@ -10604,7 +10653,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
         <v>996</v>
       </c>
@@ -10615,7 +10664,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
         <v>997</v>
       </c>
@@ -10626,7 +10675,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
         <v>998</v>
       </c>
@@ -10637,7 +10686,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
         <v>1096</v>
       </c>
@@ -10648,7 +10697,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
         <v>999</v>
       </c>
@@ -10659,7 +10708,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
         <v>1000</v>
       </c>
@@ -10670,7 +10719,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
         <v>1001</v>
       </c>
@@ -10681,7 +10730,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
         <v>1002</v>
       </c>
@@ -10692,7 +10741,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
         <v>1003</v>
       </c>
@@ -10703,7 +10752,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
         <v>1004</v>
       </c>
@@ -10714,7 +10763,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
         <v>1005</v>
       </c>
@@ -10725,7 +10774,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
         <v>1006</v>
       </c>
@@ -10736,7 +10785,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
         <v>1007</v>
       </c>
@@ -10747,7 +10796,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
         <v>1008</v>
       </c>
@@ -10758,7 +10807,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
         <v>1009</v>
       </c>
@@ -10769,7 +10818,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
         <v>1010</v>
       </c>
@@ -10780,7 +10829,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="s">
         <v>1011</v>
       </c>
@@ -10791,7 +10840,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
         <v>1012</v>
       </c>
@@ -10802,7 +10851,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
         <v>1013</v>
       </c>
@@ -10813,7 +10862,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
         <v>1014</v>
       </c>
@@ -10824,7 +10873,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
         <v>1015</v>
       </c>
@@ -10835,7 +10884,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
         <v>1016</v>
       </c>
@@ -10846,7 +10895,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
         <v>1017</v>
       </c>
@@ -10857,7 +10906,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
         <v>1018</v>
       </c>
@@ -10868,7 +10917,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
         <v>1019</v>
       </c>
@@ -10879,7 +10928,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
         <v>1020</v>
       </c>
@@ -10890,7 +10939,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
         <v>1021</v>
       </c>
@@ -10901,7 +10950,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
         <v>1022</v>
       </c>
@@ -10912,7 +10961,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" s="1" t="s">
         <v>1023</v>
       </c>
@@ -10923,7 +10972,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
         <v>1024</v>
       </c>
@@ -10934,7 +10983,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
         <v>1025</v>
       </c>
@@ -10945,7 +10994,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
         <v>1026</v>
       </c>
@@ -10956,7 +11005,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
         <v>1027</v>
       </c>
@@ -10967,7 +11016,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
         <v>1028</v>
       </c>
@@ -10978,7 +11027,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
         <v>1029</v>
       </c>
@@ -10989,7 +11038,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
         <v>1030</v>
       </c>
@@ -11000,7 +11049,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" s="1" t="s">
         <v>1031</v>
       </c>
@@ -11011,7 +11060,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" s="1" t="s">
         <v>1032</v>
       </c>
@@ -11022,7 +11071,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
         <v>1033</v>
       </c>
@@ -11033,7 +11082,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
         <v>1034</v>
       </c>
@@ -11044,7 +11093,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
         <v>1035</v>
       </c>
@@ -11055,7 +11104,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
         <v>1036</v>
       </c>
@@ -11066,7 +11115,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" s="1" t="s">
         <v>1037</v>
       </c>
@@ -11077,7 +11126,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" s="1" t="s">
         <v>1038</v>
       </c>
@@ -11088,7 +11137,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" s="1" t="s">
         <v>1039</v>
       </c>
@@ -11099,7 +11148,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" s="1" t="s">
         <v>1040</v>
       </c>
@@ -11110,7 +11159,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" s="1" t="s">
         <v>1090</v>
       </c>
@@ -11121,7 +11170,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" s="1" t="s">
         <v>1093</v>
       </c>
@@ -11132,7 +11181,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" s="1" t="s">
         <v>1106</v>
       </c>
@@ -11143,7 +11192,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
         <v>1107</v>
       </c>
@@ -11154,7 +11203,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" s="1" t="s">
         <v>1108</v>
       </c>
@@ -11165,7 +11214,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
         <v>1109</v>
       </c>
@@ -11176,7 +11225,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" s="1" t="s">
         <v>1110</v>
       </c>
@@ -11187,7 +11236,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
         <v>1111</v>
       </c>
@@ -11196,6 +11245,94 @@
       </c>
       <c r="C736" s="2" t="s">
         <v>1118</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A737" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A738" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C738" s="2" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A739" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A740" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A741" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A742" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C742" s="2" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A743" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A744" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>1134</v>
       </c>
     </row>
   </sheetData>

--- a/data-input/country-codes/country-codes.xlsx
+++ b/data-input/country-codes/country-codes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasblanchet/GitHub/wid-world/data-input/country-codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amory Gethin\Documents\GitHub\wid-world\data-input\country-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9A48EAD9-86BB-0C4C-B970-206769246B84}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20780" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20780" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Country Codes" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="1135">
   <si>
     <t>code</t>
   </si>
@@ -3435,7 +3434,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3800,15 +3799,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F744"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A717" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D739" sqref="D739"/>
+      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A283" sqref="A283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" style="2" customWidth="1"/>
@@ -3818,7 +3817,7 @@
     <col min="6" max="6" width="32" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3838,22 +3837,22 @@
         <v>930</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3870,7 +3869,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3887,7 +3886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3904,7 +3903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3921,12 +3920,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -3943,17 +3942,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -3987,7 +3986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -4004,7 +4003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -4021,17 +4020,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -4048,7 +4047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -4085,7 +4084,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -4102,12 +4101,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -4141,12 +4140,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -4163,7 +4162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -4180,7 +4179,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -4197,12 +4196,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
@@ -4219,7 +4218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -4239,7 +4238,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -4293,7 +4292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
@@ -4310,7 +4309,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -4327,12 +4326,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
@@ -4349,7 +4348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -4366,7 +4365,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,7 +4382,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -4400,12 +4399,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
@@ -4422,7 +4421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
@@ -4439,7 +4438,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
@@ -4456,7 +4455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -4473,17 +4472,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
@@ -4500,12 +4499,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -4522,7 +4521,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
@@ -4539,7 +4538,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
@@ -4556,17 +4555,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -4583,12 +4582,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>114</v>
       </c>
@@ -4605,7 +4604,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>116</v>
       </c>
@@ -4622,7 +4621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -4656,12 +4655,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
@@ -4678,7 +4677,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>125</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>127</v>
       </c>
@@ -4712,7 +4711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>129</v>
       </c>
@@ -4729,7 +4728,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>132</v>
       </c>
@@ -4746,17 +4745,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>136</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>138</v>
       </c>
@@ -4793,12 +4792,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
@@ -4815,7 +4814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
@@ -4832,7 +4831,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
@@ -4849,12 +4848,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>148</v>
       </c>
@@ -4874,7 +4873,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>150</v>
       </c>
@@ -4894,22 +4893,22 @@
         <v>988</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>155</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>157</v>
       </c>
@@ -4946,27 +4945,27 @@
         <v>988</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>163</v>
       </c>
@@ -4983,7 +4982,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>165</v>
       </c>
@@ -5003,12 +5002,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>168</v>
       </c>
@@ -5025,12 +5024,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>171</v>
       </c>
@@ -5047,57 +5046,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>183</v>
       </c>
@@ -5114,17 +5113,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>188</v>
       </c>
@@ -5141,12 +5140,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>191</v>
       </c>
@@ -5166,12 +5165,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>194</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>196</v>
       </c>
@@ -5205,52 +5204,52 @@
         <v>185</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>207</v>
       </c>
@@ -5267,7 +5266,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>209</v>
       </c>
@@ -5287,7 +5286,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>211</v>
       </c>
@@ -5304,77 +5303,77 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>227</v>
       </c>
@@ -5394,7 +5393,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>229</v>
       </c>
@@ -5411,7 +5410,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>231</v>
       </c>
@@ -5428,12 +5427,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>233</v>
       </c>
@@ -5450,12 +5449,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>236</v>
       </c>
@@ -5475,17 +5474,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>240</v>
       </c>
@@ -5505,47 +5504,47 @@
         <v>988</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>250</v>
       </c>
@@ -5562,7 +5561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>252</v>
       </c>
@@ -5582,12 +5581,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>255</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>257</v>
       </c>
@@ -5621,12 +5620,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>260</v>
       </c>
@@ -5643,7 +5642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>262</v>
       </c>
@@ -5660,7 +5659,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>264</v>
       </c>
@@ -5680,17 +5679,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>268</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>270</v>
       </c>
@@ -5724,7 +5723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>272</v>
       </c>
@@ -5741,12 +5740,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>275</v>
       </c>
@@ -5763,7 +5762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>277</v>
       </c>
@@ -5780,7 +5779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>279</v>
       </c>
@@ -5800,12 +5799,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>282</v>
       </c>
@@ -5822,7 +5821,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>284</v>
       </c>
@@ -5839,12 +5838,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>287</v>
       </c>
@@ -5861,12 +5860,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>290</v>
       </c>
@@ -5883,62 +5882,62 @@
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>303</v>
       </c>
@@ -5955,17 +5954,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>307</v>
       </c>
@@ -5982,22 +5981,22 @@
         <v>107</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>312</v>
       </c>
@@ -6017,12 +6016,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>315</v>
       </c>
@@ -6039,7 +6038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>317</v>
       </c>
@@ -6059,47 +6058,47 @@
         <v>988</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>327</v>
       </c>
@@ -6116,7 +6115,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>329</v>
       </c>
@@ -6136,37 +6135,37 @@
         <v>988</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>337</v>
       </c>
@@ -6183,7 +6182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>339</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>341</v>
       </c>
@@ -6220,17 +6219,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>345</v>
       </c>
@@ -6247,7 +6246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>347</v>
       </c>
@@ -6264,7 +6263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>348</v>
       </c>
@@ -6281,7 +6280,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>350</v>
       </c>
@@ -6301,57 +6300,57 @@
         <v>988</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>362</v>
       </c>
@@ -6371,42 +6370,42 @@
         <v>988</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>371</v>
       </c>
@@ -6423,12 +6422,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>374</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>376</v>
       </c>
@@ -6462,77 +6461,77 @@
         <v>131</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>392</v>
       </c>
@@ -6549,12 +6548,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>395</v>
       </c>
@@ -6571,7 +6570,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>398</v>
       </c>
@@ -6588,7 +6587,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>400</v>
       </c>
@@ -6605,22 +6604,22 @@
         <v>933</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>405</v>
       </c>
@@ -6637,7 +6636,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>407</v>
       </c>
@@ -6654,12 +6653,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>410</v>
       </c>
@@ -6676,12 +6675,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>412</v>
       </c>
@@ -6698,7 +6697,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="5" t="s">
         <v>413</v>
       </c>
@@ -6716,22 +6715,35 @@
       </c>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A283" s="1" t="s">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A283" s="5" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B283" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F283" s="6"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>417</v>
       </c>
@@ -6748,12 +6760,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>420</v>
       </c>
@@ -6770,7 +6782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>422</v>
       </c>
@@ -6787,7 +6799,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>424</v>
       </c>
@@ -6804,7 +6816,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>425</v>
       </c>
@@ -6821,7 +6833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>427</v>
       </c>
@@ -6838,32 +6850,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>434</v>
       </c>
@@ -6880,12 +6892,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>437</v>
       </c>
@@ -6902,37 +6914,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>445</v>
       </c>
@@ -6949,7 +6961,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>447</v>
       </c>
@@ -6966,7 +6978,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>449</v>
       </c>
@@ -6986,7 +6998,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>451</v>
       </c>
@@ -7006,7 +7018,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>453</v>
       </c>
@@ -7026,17 +7038,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>457</v>
       </c>
@@ -7053,12 +7065,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>460</v>
       </c>
@@ -7075,12 +7087,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>463</v>
       </c>
@@ -7097,7 +7109,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>465</v>
       </c>
@@ -7114,7 +7126,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>466</v>
       </c>
@@ -7131,7 +7143,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>468</v>
       </c>
@@ -7148,7 +7160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>470</v>
       </c>
@@ -7165,7 +7177,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>472</v>
       </c>
@@ -7182,17 +7194,17 @@
         <v>933</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>476</v>
       </c>
@@ -7209,7 +7221,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>477</v>
       </c>
@@ -7226,7 +7238,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>479</v>
       </c>
@@ -7243,7 +7255,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>481</v>
       </c>
@@ -7260,7 +7272,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>483</v>
       </c>
@@ -7277,7 +7289,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>485</v>
       </c>
@@ -7294,7 +7306,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>487</v>
       </c>
@@ -7311,7 +7323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>489</v>
       </c>
@@ -7328,7 +7340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>491</v>
       </c>
@@ -7348,7 +7360,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>493</v>
       </c>
@@ -7368,7 +7380,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>495</v>
       </c>
@@ -7385,7 +7397,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>497</v>
       </c>
@@ -7402,7 +7414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>499</v>
       </c>
@@ -7419,7 +7431,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>501</v>
       </c>
@@ -7436,7 +7448,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>503</v>
       </c>
@@ -7453,7 +7465,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>505</v>
       </c>
@@ -7470,7 +7482,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>507</v>
       </c>
@@ -7487,12 +7499,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>510</v>
       </c>
@@ -7509,12 +7521,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>513</v>
       </c>
@@ -7531,7 +7543,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>515</v>
       </c>
@@ -7548,7 +7560,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>517</v>
       </c>
@@ -7565,12 +7577,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>520</v>
       </c>
@@ -7587,17 +7599,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>524</v>
       </c>
@@ -7617,17 +7629,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>528</v>
       </c>
@@ -7644,7 +7656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
         <v>530</v>
       </c>
@@ -7661,12 +7673,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>533</v>
       </c>
@@ -7683,17 +7695,17 @@
         <v>933</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>537</v>
       </c>
@@ -7710,27 +7722,27 @@
         <v>933</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>543</v>
       </c>
@@ -7747,67 +7759,67 @@
         <v>46</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>557</v>
       </c>
@@ -7824,72 +7836,72 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>572</v>
       </c>
@@ -7906,22 +7918,22 @@
         <v>107</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>577</v>
       </c>
@@ -7938,7 +7950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>579</v>
       </c>
@@ -7955,7 +7967,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>580</v>
       </c>
@@ -7972,7 +7984,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>582</v>
       </c>
@@ -7989,17 +8001,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>586</v>
       </c>
@@ -8016,7 +8028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>588</v>
       </c>
@@ -8036,7 +8048,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>590</v>
       </c>
@@ -8053,7 +8065,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>592</v>
       </c>
@@ -8070,22 +8082,22 @@
         <v>933</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>597</v>
       </c>
@@ -8102,7 +8114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>599</v>
       </c>
@@ -8119,7 +8131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>600</v>
       </c>
@@ -8139,17 +8151,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>604</v>
       </c>
@@ -8166,12 +8178,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
         <v>607</v>
       </c>
@@ -8188,12 +8200,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
         <v>610</v>
       </c>
@@ -8210,7 +8222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="5" t="s">
         <v>612</v>
       </c>
@@ -8224,7 +8236,7 @@
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="5" t="s">
         <v>613</v>
       </c>
@@ -8238,7 +8250,7 @@
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="5" t="s">
         <v>614</v>
       </c>
@@ -8252,7 +8264,7 @@
       <c r="E421" s="6"/>
       <c r="F421" s="6"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="5" t="s">
         <v>615</v>
       </c>
@@ -8266,7 +8278,7 @@
       <c r="E422" s="6"/>
       <c r="F422" s="6"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="5" t="s">
         <v>616</v>
       </c>
@@ -8280,7 +8292,7 @@
       <c r="E423" s="6"/>
       <c r="F423" s="6"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="5" t="s">
         <v>617</v>
       </c>
@@ -8294,7 +8306,7 @@
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="5" t="s">
         <v>618</v>
       </c>
@@ -8308,7 +8320,7 @@
       <c r="E425" s="6"/>
       <c r="F425" s="6"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="5" t="s">
         <v>619</v>
       </c>
@@ -8322,7 +8334,7 @@
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="5" t="s">
         <v>620</v>
       </c>
@@ -8336,7 +8348,7 @@
       <c r="E427" s="6"/>
       <c r="F427" s="6"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="5" t="s">
         <v>621</v>
       </c>
@@ -8350,7 +8362,7 @@
       <c r="E428" s="6"/>
       <c r="F428" s="6"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="5" t="s">
         <v>622</v>
       </c>
@@ -8364,7 +8376,7 @@
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="5" t="s">
         <v>623</v>
       </c>
@@ -8378,7 +8390,7 @@
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="5" t="s">
         <v>624</v>
       </c>
@@ -8392,7 +8404,7 @@
       <c r="E431" s="6"/>
       <c r="F431" s="6"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="5" t="s">
         <v>625</v>
       </c>
@@ -8406,7 +8418,7 @@
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="5" t="s">
         <v>626</v>
       </c>
@@ -8420,7 +8432,7 @@
       <c r="E433" s="6"/>
       <c r="F433" s="6"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="5" t="s">
         <v>627</v>
       </c>
@@ -8434,7 +8446,7 @@
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="5" t="s">
         <v>628</v>
       </c>
@@ -8448,7 +8460,7 @@
       <c r="E435" s="6"/>
       <c r="F435" s="6"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="5" t="s">
         <v>629</v>
       </c>
@@ -8462,7 +8474,7 @@
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="5" t="s">
         <v>630</v>
       </c>
@@ -8476,7 +8488,7 @@
       <c r="E437" s="6"/>
       <c r="F437" s="6"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="5" t="s">
         <v>631</v>
       </c>
@@ -8490,7 +8502,7 @@
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="5" t="s">
         <v>632</v>
       </c>
@@ -8504,7 +8516,7 @@
       <c r="E439" s="6"/>
       <c r="F439" s="6"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="5" t="s">
         <v>633</v>
       </c>
@@ -8518,7 +8530,7 @@
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="5" t="s">
         <v>634</v>
       </c>
@@ -8532,7 +8544,7 @@
       <c r="E441" s="6"/>
       <c r="F441" s="6"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="5" t="s">
         <v>635</v>
       </c>
@@ -8546,32 +8558,32 @@
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>641</v>
       </c>
@@ -8588,52 +8600,52 @@
         <v>75</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>652</v>
       </c>
@@ -8653,22 +8665,22 @@
         <v>988</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>657</v>
       </c>
@@ -8685,12 +8697,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
         <v>660</v>
       </c>
@@ -8707,12 +8719,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>663</v>
       </c>
@@ -8729,22 +8741,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
         <v>668</v>
       </c>
@@ -8761,7 +8773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
         <v>670</v>
       </c>
@@ -8778,7 +8790,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
         <v>672</v>
       </c>
@@ -8795,7 +8807,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
         <v>674</v>
       </c>
@@ -8812,7 +8824,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
         <v>676</v>
       </c>
@@ -8832,12 +8844,12 @@
         <v>988</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
         <v>679</v>
       </c>
@@ -8854,7 +8866,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
         <v>681</v>
       </c>
@@ -8871,7 +8883,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
         <v>682</v>
       </c>
@@ -8891,7 +8903,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
         <v>684</v>
       </c>
@@ -8908,7 +8920,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>686</v>
       </c>
@@ -8928,7 +8940,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>688</v>
       </c>
@@ -8945,7 +8957,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>690</v>
       </c>
@@ -8962,7 +8974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
         <v>692</v>
       </c>
@@ -8979,7 +8991,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
         <v>694</v>
       </c>
@@ -8996,17 +9008,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
         <v>698</v>
       </c>
@@ -9023,7 +9035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
         <v>700</v>
       </c>
@@ -9040,7 +9052,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
         <v>702</v>
       </c>
@@ -9057,7 +9069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="5" t="s">
         <v>704</v>
       </c>
@@ -9075,7 +9087,7 @@
       </c>
       <c r="F490" s="6"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
         <v>705</v>
       </c>
@@ -9092,12 +9104,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
         <v>708</v>
       </c>
@@ -9114,7 +9126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
         <v>710</v>
       </c>
@@ -9131,7 +9143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
         <v>712</v>
       </c>
@@ -9148,17 +9160,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
         <v>716</v>
       </c>
@@ -9175,7 +9187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
         <v>718</v>
       </c>
@@ -9192,17 +9204,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
         <v>722</v>
       </c>
@@ -9219,7 +9231,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
         <v>724</v>
       </c>
@@ -9236,12 +9248,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
         <v>727</v>
       </c>
@@ -9258,7 +9270,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A506" s="1" t="s">
         <v>729</v>
       </c>
@@ -9275,7 +9287,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A507" s="1" t="s">
         <v>731</v>
       </c>
@@ -9292,7 +9304,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
         <v>733</v>
       </c>
@@ -9309,7 +9321,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
         <v>735</v>
       </c>
@@ -9326,7 +9338,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510" s="1" t="s">
         <v>737</v>
       </c>
@@ -9343,17 +9355,17 @@
         <v>933</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
         <v>741</v>
       </c>
@@ -9370,12 +9382,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
         <v>744</v>
       </c>
@@ -9392,12 +9404,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A516" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A517" s="1" t="s">
         <v>747</v>
       </c>
@@ -9414,7 +9426,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A518" s="1" t="s">
         <v>749</v>
       </c>
@@ -9431,17 +9443,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A519" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A520" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A521" s="1" t="s">
         <v>752</v>
       </c>
@@ -9458,7 +9470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A522" s="1" t="s">
         <v>753</v>
       </c>
@@ -9475,32 +9487,32 @@
         <v>70</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A523" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A524" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" s="1" t="s">
         <v>760</v>
       </c>
@@ -9517,62 +9529,62 @@
         <v>75</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A529" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A530" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A531" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A532" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A533" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A534" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A535" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A536" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A537" s="1" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" s="1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A539" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A540" s="1" t="s">
         <v>773</v>
       </c>
@@ -9589,32 +9601,32 @@
         <v>83</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A541" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A542" s="1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A543" s="1" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A544" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A545" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A546" s="1" t="s">
         <v>779</v>
       </c>
@@ -9631,7 +9643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A547" s="1" t="s">
         <v>781</v>
       </c>
@@ -9648,7 +9660,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A548" s="1" t="s">
         <v>783</v>
       </c>
@@ -9665,12 +9677,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A549" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A550" s="1" t="s">
         <v>785</v>
       </c>
@@ -9687,12 +9699,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A551" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A552" s="1" t="s">
         <v>788</v>
       </c>
@@ -9709,12 +9721,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A553" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A554" s="1" t="s">
         <v>790</v>
       </c>
@@ -9731,12 +9743,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A555" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A556" s="1" t="s">
         <v>793</v>
       </c>
@@ -9753,27 +9765,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A557" s="1" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A558" s="1" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A559" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A560" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" s="1" t="s">
         <v>798</v>
       </c>
@@ -9790,37 +9802,37 @@
         <v>86</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A562" s="1" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A563" s="1" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A564" s="1" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A565" s="1" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A567" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A568" s="1" t="s">
         <v>806</v>
       </c>
@@ -9837,57 +9849,57 @@
         <v>933</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A569" s="1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A570" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A571" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A572" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A573" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A574" s="1" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A575" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A576" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A577" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A578" s="1" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A579" s="1" t="s">
         <v>818</v>
       </c>
@@ -9904,47 +9916,47 @@
         <v>933</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A580" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A581" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A582" s="1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A583" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A584" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A585" s="1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A586" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A587" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="588" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A588" s="7" t="s">
         <v>828</v>
       </c>
@@ -9958,22 +9970,22 @@
       <c r="E588" s="8"/>
       <c r="F588" s="8"/>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A589" s="1" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A590" s="1" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A591" s="1" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A592" s="1" t="s">
         <v>832</v>
       </c>
@@ -9990,42 +10002,42 @@
         <v>933</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A593" s="1" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A594" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A595" s="1" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A596" s="1" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A597" s="1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A598" s="1" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A599" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="600" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A600" s="7" t="s">
         <v>841</v>
       </c>
@@ -10039,27 +10051,27 @@
       <c r="E600" s="8"/>
       <c r="F600" s="8"/>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A601" s="1" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A602" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A603" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A604" s="1" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="605" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A605" s="7" t="s">
         <v>846</v>
       </c>
@@ -10073,17 +10085,17 @@
       <c r="E605" s="8"/>
       <c r="F605" s="8"/>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A606" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A607" s="1" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A608" s="1" t="s">
         <v>849</v>
       </c>
@@ -10103,17 +10115,17 @@
         <v>988</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A609" s="1" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A610" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="611" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A611" s="7" t="s">
         <v>852</v>
       </c>
@@ -10127,7 +10139,7 @@
       <c r="E611" s="8"/>
       <c r="F611" s="8"/>
     </row>
-    <row r="612" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A612" s="7" t="s">
         <v>853</v>
       </c>
@@ -10141,7 +10153,7 @@
       <c r="E612" s="8"/>
       <c r="F612" s="8"/>
     </row>
-    <row r="613" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A613" s="7" t="s">
         <v>854</v>
       </c>
@@ -10155,22 +10167,22 @@
       <c r="E613" s="8"/>
       <c r="F613" s="8"/>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A614" s="1" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A615" s="1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A616" s="1" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="617" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A617" s="7" t="s">
         <v>858</v>
       </c>
@@ -10184,47 +10196,47 @@
       <c r="E617" s="8"/>
       <c r="F617" s="8"/>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A618" s="1" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A619" s="1" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A620" s="1" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A621" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A622" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A623" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A624" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A625" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A626" s="5" t="s">
         <v>867</v>
       </c>
@@ -10242,17 +10254,17 @@
       </c>
       <c r="F626" s="6"/>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A627" s="1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A628" s="1" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A629" s="5" t="s">
         <v>870</v>
       </c>
@@ -10270,7 +10282,7 @@
       </c>
       <c r="F629" s="6"/>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A630" s="1" t="s">
         <v>872</v>
       </c>
@@ -10287,77 +10299,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A631" s="1" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A632" s="1" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A633" s="1" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A634" s="1" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A635" s="1" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A636" s="1" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A637" s="1" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A638" s="1" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A639" s="1" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A640" s="1" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A641" s="1" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A642" s="1" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A643" s="1" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A644" s="1" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A645" s="1" t="s">
         <v>888</v>
       </c>
@@ -10374,7 +10386,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A646" s="5" t="s">
         <v>890</v>
       </c>
@@ -10394,32 +10406,32 @@
         <v>988</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A647" s="1" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A648" s="1" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A649" s="1" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A650" s="1" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A651" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A652" s="1" t="s">
         <v>897</v>
       </c>
@@ -10436,62 +10448,62 @@
         <v>101</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A653" s="1" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A654" s="1" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A655" s="1" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A656" s="1" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A657" s="1" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A658" s="1" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A659" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A660" s="1" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A661" s="1" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A662" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A663" s="1" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A664" s="1" t="s">
         <v>910</v>
       </c>
@@ -10508,52 +10520,52 @@
         <v>75</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A665" s="1" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A666" s="1" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A667" s="1" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A668" s="1" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A669" s="1" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A670" s="1" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A671" s="1" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A672" s="1" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A673" s="1" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A674" s="1" t="s">
         <v>921</v>
       </c>
@@ -10570,17 +10582,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A675" s="1" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A676" s="1" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A677" s="5" t="s">
         <v>925</v>
       </c>
@@ -10598,7 +10610,7 @@
       </c>
       <c r="F677" s="6"/>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A678" s="1" t="s">
         <v>991</v>
       </c>
@@ -10609,7 +10621,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A679" s="1" t="s">
         <v>992</v>
       </c>
@@ -10620,7 +10632,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A680" s="1" t="s">
         <v>993</v>
       </c>
@@ -10631,7 +10643,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A681" s="1" t="s">
         <v>994</v>
       </c>
@@ -10642,7 +10654,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A682" s="1" t="s">
         <v>995</v>
       </c>
@@ -10653,7 +10665,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A683" s="1" t="s">
         <v>996</v>
       </c>
@@ -10664,7 +10676,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A684" s="1" t="s">
         <v>997</v>
       </c>
@@ -10675,7 +10687,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A685" s="1" t="s">
         <v>998</v>
       </c>
@@ -10686,7 +10698,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A686" s="1" t="s">
         <v>1096</v>
       </c>
@@ -10697,7 +10709,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A687" s="1" t="s">
         <v>999</v>
       </c>
@@ -10708,7 +10720,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A688" s="1" t="s">
         <v>1000</v>
       </c>
@@ -10719,7 +10731,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A689" s="1" t="s">
         <v>1001</v>
       </c>
@@ -10730,7 +10742,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A690" s="1" t="s">
         <v>1002</v>
       </c>
@@ -10741,7 +10753,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A691" s="1" t="s">
         <v>1003</v>
       </c>
@@ -10752,7 +10764,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A692" s="1" t="s">
         <v>1004</v>
       </c>
@@ -10763,7 +10775,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A693" s="1" t="s">
         <v>1005</v>
       </c>
@@ -10774,7 +10786,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A694" s="1" t="s">
         <v>1006</v>
       </c>
@@ -10785,7 +10797,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A695" s="1" t="s">
         <v>1007</v>
       </c>
@@ -10796,7 +10808,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A696" s="1" t="s">
         <v>1008</v>
       </c>
@@ -10807,7 +10819,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A697" s="1" t="s">
         <v>1009</v>
       </c>
@@ -10818,7 +10830,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A698" s="1" t="s">
         <v>1010</v>
       </c>
@@ -10829,7 +10841,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A699" s="1" t="s">
         <v>1011</v>
       </c>
@@ -10840,7 +10852,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A700" s="1" t="s">
         <v>1012</v>
       </c>
@@ -10851,7 +10863,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A701" s="1" t="s">
         <v>1013</v>
       </c>
@@ -10862,7 +10874,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A702" s="1" t="s">
         <v>1014</v>
       </c>
@@ -10873,7 +10885,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A703" s="1" t="s">
         <v>1015</v>
       </c>
@@ -10884,7 +10896,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A704" s="1" t="s">
         <v>1016</v>
       </c>
@@ -10895,7 +10907,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A705" s="1" t="s">
         <v>1017</v>
       </c>
@@ -10906,7 +10918,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A706" s="1" t="s">
         <v>1018</v>
       </c>
@@ -10917,7 +10929,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A707" s="1" t="s">
         <v>1019</v>
       </c>
@@ -10928,7 +10940,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A708" s="1" t="s">
         <v>1020</v>
       </c>
@@ -10939,7 +10951,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A709" s="1" t="s">
         <v>1021</v>
       </c>
@@ -10950,7 +10962,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A710" s="1" t="s">
         <v>1022</v>
       </c>
@@ -10961,7 +10973,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A711" s="1" t="s">
         <v>1023</v>
       </c>
@@ -10972,7 +10984,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A712" s="1" t="s">
         <v>1024</v>
       </c>
@@ -10983,7 +10995,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A713" s="1" t="s">
         <v>1025</v>
       </c>
@@ -10994,7 +11006,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A714" s="1" t="s">
         <v>1026</v>
       </c>
@@ -11005,7 +11017,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A715" s="1" t="s">
         <v>1027</v>
       </c>
@@ -11016,7 +11028,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A716" s="1" t="s">
         <v>1028</v>
       </c>
@@ -11027,7 +11039,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A717" s="1" t="s">
         <v>1029</v>
       </c>
@@ -11038,7 +11050,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A718" s="1" t="s">
         <v>1030</v>
       </c>
@@ -11049,7 +11061,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A719" s="1" t="s">
         <v>1031</v>
       </c>
@@ -11060,7 +11072,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A720" s="1" t="s">
         <v>1032</v>
       </c>
@@ -11071,7 +11083,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A721" s="1" t="s">
         <v>1033</v>
       </c>
@@ -11082,7 +11094,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A722" s="1" t="s">
         <v>1034</v>
       </c>
@@ -11093,7 +11105,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A723" s="1" t="s">
         <v>1035</v>
       </c>
@@ -11104,7 +11116,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A724" s="1" t="s">
         <v>1036</v>
       </c>
@@ -11115,7 +11127,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A725" s="1" t="s">
         <v>1037</v>
       </c>
@@ -11126,7 +11138,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A726" s="1" t="s">
         <v>1038</v>
       </c>
@@ -11137,7 +11149,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A727" s="1" t="s">
         <v>1039</v>
       </c>
@@ -11148,7 +11160,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A728" s="1" t="s">
         <v>1040</v>
       </c>
@@ -11159,7 +11171,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A729" s="1" t="s">
         <v>1090</v>
       </c>
@@ -11170,7 +11182,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A730" s="1" t="s">
         <v>1093</v>
       </c>
@@ -11181,7 +11193,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A731" s="1" t="s">
         <v>1106</v>
       </c>
@@ -11192,7 +11204,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A732" s="1" t="s">
         <v>1107</v>
       </c>
@@ -11203,7 +11215,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A733" s="1" t="s">
         <v>1108</v>
       </c>
@@ -11214,7 +11226,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A734" s="1" t="s">
         <v>1109</v>
       </c>
@@ -11225,7 +11237,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A735" s="1" t="s">
         <v>1110</v>
       </c>
@@ -11236,7 +11248,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A736" s="1" t="s">
         <v>1111</v>
       </c>
@@ -11247,7 +11259,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A737" s="1" t="s">
         <v>1119</v>
       </c>
@@ -11258,7 +11270,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A738" s="1" t="s">
         <v>1120</v>
       </c>
@@ -11269,7 +11281,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A739" s="1" t="s">
         <v>1121</v>
       </c>
@@ -11280,7 +11292,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A740" s="1" t="s">
         <v>1122</v>
       </c>
@@ -11291,7 +11303,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A741" s="1" t="s">
         <v>1123</v>
       </c>
@@ -11302,7 +11314,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A742" s="1" t="s">
         <v>1124</v>
       </c>
@@ -11313,7 +11325,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A743" s="1" t="s">
         <v>1125</v>
       </c>
@@ -11324,7 +11336,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A744" s="1" t="s">
         <v>1126</v>
       </c>

--- a/data-input/country-codes/country-codes.xlsx
+++ b/data-input/country-codes/country-codes.xlsx
@@ -3803,8 +3803,8 @@
   <dimension ref="A1:F744"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A283" sqref="A283"/>
+      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D523" sqref="D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="42.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4515,10 +4515,10 @@
         <v>104</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -8713,10 +8713,10 @@
         <v>661</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.35">
@@ -9080,10 +9080,10 @@
         <v>961</v>
       </c>
       <c r="D490" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E490" s="6" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F490" s="6"/>
     </row>
@@ -9481,10 +9481,10 @@
         <v>754</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.35">

--- a/data-input/country-codes/country-codes.xlsx
+++ b/data-input/country-codes/country-codes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amory Gethin\Documents\GitHub\wid-world\data-input\country-codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasblanchet/GitHub/wid-world/data-input/country-codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5753C552-A0F5-7045-A325-2CE91F411DB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20780" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20780" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Country Codes" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="1122">
   <si>
     <t>code</t>
   </si>
@@ -2879,9 +2880,6 @@
     <t>Lao PDR</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>the Northern Mariana Islands</t>
   </si>
   <si>
@@ -3344,45 +3342,6 @@
     <t>Asia (excluding Middle East)</t>
   </si>
   <si>
-    <t>WO-MER</t>
-  </si>
-  <si>
-    <t>XA-MER</t>
-  </si>
-  <si>
-    <t>XF-MER</t>
-  </si>
-  <si>
-    <t>XL-MER</t>
-  </si>
-  <si>
-    <t>XN-MER</t>
-  </si>
-  <si>
-    <t>XR-MER</t>
-  </si>
-  <si>
-    <t>World (Market Exchange Rate)</t>
-  </si>
-  <si>
-    <t>Asia (excluding Middle East), Market Exchange Rate</t>
-  </si>
-  <si>
-    <t>World, Market Exchange Rate</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa, Market Exchange Rate</t>
-  </si>
-  <si>
-    <t>Latin America, Market Exchange Rate</t>
-  </si>
-  <si>
-    <t>Middle East and Northern Africa, Market Exchange Rate</t>
-  </si>
-  <si>
-    <t>Russia and Ukraine, Market Exchange Rate</t>
-  </si>
-  <si>
     <t>DE-BD</t>
   </si>
   <si>
@@ -3429,12 +3388,15 @@
   </si>
   <si>
     <t>Wurttemberg</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3799,15 +3761,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F744"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F738"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D523" sqref="D523"/>
+      <pane ySplit="1" topLeftCell="A719" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E725" sqref="E725"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="42.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="42.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" style="2" customWidth="1"/>
@@ -3817,7 +3779,7 @@
     <col min="6" max="6" width="32" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3837,22 +3799,22 @@
         <v>930</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3869,7 +3831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3886,7 +3848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3903,7 +3865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3920,12 +3882,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -3942,17 +3904,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3969,7 +3931,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -3986,7 +3948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -4003,7 +3965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -4020,17 +3982,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -4047,7 +4009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -4064,7 +4026,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -4081,10 +4043,10 @@
         <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -4101,12 +4063,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -4123,7 +4085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -4140,12 +4102,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -4162,7 +4124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
@@ -4179,7 +4141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -4196,12 +4158,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
@@ -4218,7 +4180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -4235,10 +4197,10 @@
         <v>43</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -4255,7 +4217,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -4272,10 +4234,10 @@
         <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -4292,7 +4254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
@@ -4309,7 +4271,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -4326,12 +4288,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
@@ -4348,7 +4310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -4365,7 +4327,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,15 +4344,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>16</v>
@@ -4399,12 +4361,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
@@ -4421,7 +4383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
@@ -4438,7 +4400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
@@ -4455,7 +4417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -4472,17 +4434,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
@@ -4499,12 +4461,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -4521,7 +4483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
@@ -4538,7 +4500,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
@@ -4555,25 +4517,25 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>978</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>979</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>31</v>
@@ -4582,12 +4544,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>114</v>
       </c>
@@ -4604,7 +4566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>116</v>
       </c>
@@ -4621,7 +4583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
@@ -4638,7 +4600,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -4655,12 +4617,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
@@ -4677,7 +4639,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>125</v>
       </c>
@@ -4694,7 +4656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>127</v>
       </c>
@@ -4711,7 +4673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>129</v>
       </c>
@@ -4728,7 +4690,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>132</v>
       </c>
@@ -4745,17 +4707,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>136</v>
       </c>
@@ -4772,7 +4734,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>138</v>
       </c>
@@ -4789,15 +4751,15 @@
         <v>70</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
@@ -4814,7 +4776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
@@ -4831,7 +4793,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
@@ -4848,12 +4810,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>148</v>
       </c>
@@ -4870,10 +4832,10 @@
         <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>150</v>
       </c>
@@ -4890,25 +4852,25 @@
         <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>155</v>
       </c>
@@ -4925,7 +4887,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>157</v>
       </c>
@@ -4942,30 +4904,30 @@
         <v>43</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>163</v>
       </c>
@@ -4982,7 +4944,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>165</v>
       </c>
@@ -4999,15 +4961,15 @@
         <v>43</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>168</v>
       </c>
@@ -5024,12 +4986,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>171</v>
       </c>
@@ -5046,57 +5008,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>183</v>
       </c>
@@ -5113,17 +5075,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>188</v>
       </c>
@@ -5140,12 +5102,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>191</v>
       </c>
@@ -5162,15 +5124,15 @@
         <v>70</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>194</v>
       </c>
@@ -5187,7 +5149,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>196</v>
       </c>
@@ -5204,52 +5166,52 @@
         <v>185</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>207</v>
       </c>
@@ -5266,7 +5228,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>209</v>
       </c>
@@ -5283,10 +5245,10 @@
         <v>43</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>211</v>
       </c>
@@ -5303,77 +5265,77 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>227</v>
       </c>
@@ -5390,10 +5352,10 @@
         <v>43</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>229</v>
       </c>
@@ -5410,15 +5372,15 @@
         <v>933</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>958</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>16</v>
@@ -5427,12 +5389,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>233</v>
       </c>
@@ -5449,12 +5411,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>236</v>
       </c>
@@ -5471,20 +5433,20 @@
         <v>43</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>240</v>
       </c>
@@ -5501,50 +5463,50 @@
         <v>43</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>250</v>
       </c>
@@ -5561,7 +5523,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>252</v>
       </c>
@@ -5578,15 +5540,15 @@
         <v>43</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>255</v>
       </c>
@@ -5603,7 +5565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>257</v>
       </c>
@@ -5620,12 +5582,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>260</v>
       </c>
@@ -5642,7 +5604,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>262</v>
       </c>
@@ -5659,7 +5621,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>264</v>
       </c>
@@ -5676,20 +5638,20 @@
         <v>43</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>268</v>
       </c>
@@ -5706,7 +5668,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>270</v>
       </c>
@@ -5723,7 +5685,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>272</v>
       </c>
@@ -5740,12 +5702,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>275</v>
       </c>
@@ -5762,7 +5724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>277</v>
       </c>
@@ -5779,7 +5741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>279</v>
       </c>
@@ -5796,15 +5758,15 @@
         <v>43</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>282</v>
       </c>
@@ -5821,7 +5783,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>284</v>
       </c>
@@ -5838,12 +5800,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>287</v>
       </c>
@@ -5860,12 +5822,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>290</v>
       </c>
@@ -5882,62 +5844,62 @@
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>303</v>
       </c>
@@ -5954,17 +5916,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>307</v>
       </c>
@@ -5981,22 +5943,22 @@
         <v>107</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>312</v>
       </c>
@@ -6013,15 +5975,15 @@
         <v>70</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>315</v>
       </c>
@@ -6038,7 +6000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>317</v>
       </c>
@@ -6055,50 +6017,50 @@
         <v>70</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>327</v>
       </c>
@@ -6115,7 +6077,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>329</v>
       </c>
@@ -6132,40 +6094,40 @@
         <v>43</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>337</v>
       </c>
@@ -6182,7 +6144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>339</v>
       </c>
@@ -6199,10 +6161,10 @@
         <v>43</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>341</v>
       </c>
@@ -6219,17 +6181,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>345</v>
       </c>
@@ -6246,7 +6208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>347</v>
       </c>
@@ -6263,7 +6225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>348</v>
       </c>
@@ -6280,7 +6242,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>350</v>
       </c>
@@ -6297,60 +6259,60 @@
         <v>43</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>362</v>
       </c>
@@ -6367,45 +6329,45 @@
         <v>43</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>371</v>
       </c>
@@ -6422,12 +6384,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>374</v>
       </c>
@@ -6444,7 +6406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>376</v>
       </c>
@@ -6461,77 +6423,77 @@
         <v>131</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>392</v>
       </c>
@@ -6548,12 +6510,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>395</v>
       </c>
@@ -6570,7 +6532,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>398</v>
       </c>
@@ -6587,7 +6549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>400</v>
       </c>
@@ -6604,22 +6566,22 @@
         <v>933</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>405</v>
       </c>
@@ -6636,7 +6598,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>407</v>
       </c>
@@ -6653,12 +6615,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>410</v>
       </c>
@@ -6675,12 +6637,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>412</v>
       </c>
@@ -6697,15 +6659,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
         <v>413</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>6</v>
@@ -6715,25 +6677,25 @@
       </c>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
         <v>416</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>6</v>
@@ -6743,7 +6705,7 @@
       </c>
       <c r="F283" s="6"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>417</v>
       </c>
@@ -6760,17 +6722,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>421</v>
@@ -6782,7 +6744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>422</v>
       </c>
@@ -6799,7 +6761,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>424</v>
       </c>
@@ -6816,7 +6778,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>425</v>
       </c>
@@ -6833,7 +6795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>427</v>
       </c>
@@ -6850,32 +6812,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>434</v>
       </c>
@@ -6892,12 +6854,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>437</v>
       </c>
@@ -6914,37 +6876,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>445</v>
       </c>
@@ -6961,7 +6923,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>447</v>
       </c>
@@ -6978,7 +6940,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>449</v>
       </c>
@@ -6995,10 +6957,10 @@
         <v>70</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>451</v>
       </c>
@@ -7015,10 +6977,10 @@
         <v>43</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>453</v>
       </c>
@@ -7035,20 +6997,20 @@
         <v>70</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>457</v>
       </c>
@@ -7065,12 +7027,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>460</v>
       </c>
@@ -7087,12 +7049,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>463</v>
       </c>
@@ -7109,7 +7071,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>465</v>
       </c>
@@ -7126,7 +7088,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>466</v>
       </c>
@@ -7143,7 +7105,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>468</v>
       </c>
@@ -7160,7 +7122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>470</v>
       </c>
@@ -7177,7 +7139,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>472</v>
       </c>
@@ -7194,25 +7156,25 @@
         <v>933</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>476</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>951</v>
+        <v>1121</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>951</v>
+        <v>1121</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>6</v>
@@ -7221,7 +7183,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>477</v>
       </c>
@@ -7238,7 +7200,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>479</v>
       </c>
@@ -7255,7 +7217,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>481</v>
       </c>
@@ -7272,7 +7234,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>483</v>
       </c>
@@ -7289,12 +7251,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>486</v>
@@ -7306,7 +7268,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>487</v>
       </c>
@@ -7323,7 +7285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>489</v>
       </c>
@@ -7340,7 +7302,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>491</v>
       </c>
@@ -7357,10 +7319,10 @@
         <v>17</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>493</v>
       </c>
@@ -7377,10 +7339,10 @@
         <v>43</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>495</v>
       </c>
@@ -7397,7 +7359,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>497</v>
       </c>
@@ -7414,7 +7376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>499</v>
       </c>
@@ -7431,7 +7393,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>501</v>
       </c>
@@ -7448,7 +7410,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>503</v>
       </c>
@@ -7465,7 +7427,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>505</v>
       </c>
@@ -7482,7 +7444,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>507</v>
       </c>
@@ -7499,12 +7461,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>510</v>
       </c>
@@ -7521,12 +7483,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>513</v>
       </c>
@@ -7543,7 +7505,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>515</v>
       </c>
@@ -7560,7 +7522,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>517</v>
       </c>
@@ -7577,12 +7539,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>520</v>
       </c>
@@ -7599,22 +7561,22 @@
         <v>107</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>524</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>525</v>
@@ -7626,20 +7588,20 @@
         <v>43</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>528</v>
       </c>
@@ -7656,7 +7618,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>530</v>
       </c>
@@ -7673,12 +7635,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>533</v>
       </c>
@@ -7695,17 +7657,17 @@
         <v>933</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>537</v>
       </c>
@@ -7722,27 +7684,27 @@
         <v>933</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>543</v>
       </c>
@@ -7759,67 +7721,67 @@
         <v>46</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>557</v>
       </c>
@@ -7836,72 +7798,72 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>572</v>
       </c>
@@ -7918,22 +7880,22 @@
         <v>107</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>577</v>
       </c>
@@ -7950,15 +7912,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>579</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>40</v>
@@ -7967,7 +7929,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>580</v>
       </c>
@@ -7984,12 +7946,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>582</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>583</v>
@@ -8001,17 +7963,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>586</v>
       </c>
@@ -8028,7 +7990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>588</v>
       </c>
@@ -8045,10 +8007,10 @@
         <v>70</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>590</v>
       </c>
@@ -8065,7 +8027,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>592</v>
       </c>
@@ -8082,22 +8044,22 @@
         <v>933</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>597</v>
       </c>
@@ -8114,15 +8076,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>599</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>9</v>
@@ -8131,7 +8093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>600</v>
       </c>
@@ -8148,20 +8110,20 @@
         <v>43</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>604</v>
       </c>
@@ -8178,12 +8140,12 @@
         <v>933</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>607</v>
       </c>
@@ -8200,12 +8162,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>610</v>
       </c>
@@ -8222,7 +8184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="5" t="s">
         <v>612</v>
       </c>
@@ -8236,7 +8198,7 @@
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="5" t="s">
         <v>613</v>
       </c>
@@ -8250,7 +8212,7 @@
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
         <v>614</v>
       </c>
@@ -8264,7 +8226,7 @@
       <c r="E421" s="6"/>
       <c r="F421" s="6"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="5" t="s">
         <v>615</v>
       </c>
@@ -8278,7 +8240,7 @@
       <c r="E422" s="6"/>
       <c r="F422" s="6"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
         <v>616</v>
       </c>
@@ -8292,7 +8254,7 @@
       <c r="E423" s="6"/>
       <c r="F423" s="6"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="5" t="s">
         <v>617</v>
       </c>
@@ -8306,12 +8268,12 @@
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
         <v>618</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C425" s="6" t="s">
         <v>17</v>
@@ -8320,7 +8282,7 @@
       <c r="E425" s="6"/>
       <c r="F425" s="6"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="5" t="s">
         <v>619</v>
       </c>
@@ -8334,7 +8296,7 @@
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="5" t="s">
         <v>620</v>
       </c>
@@ -8348,7 +8310,7 @@
       <c r="E427" s="6"/>
       <c r="F427" s="6"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="5" t="s">
         <v>621</v>
       </c>
@@ -8362,7 +8324,7 @@
       <c r="E428" s="6"/>
       <c r="F428" s="6"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="5" t="s">
         <v>622</v>
       </c>
@@ -8376,7 +8338,7 @@
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="5" t="s">
         <v>623</v>
       </c>
@@ -8390,7 +8352,7 @@
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="5" t="s">
         <v>624</v>
       </c>
@@ -8404,7 +8366,7 @@
       <c r="E431" s="6"/>
       <c r="F431" s="6"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" s="5" t="s">
         <v>625</v>
       </c>
@@ -8418,7 +8380,7 @@
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="5" t="s">
         <v>626</v>
       </c>
@@ -8432,7 +8394,7 @@
       <c r="E433" s="6"/>
       <c r="F433" s="6"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" s="5" t="s">
         <v>627</v>
       </c>
@@ -8446,7 +8408,7 @@
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="5" t="s">
         <v>628</v>
       </c>
@@ -8460,7 +8422,7 @@
       <c r="E435" s="6"/>
       <c r="F435" s="6"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" s="5" t="s">
         <v>629</v>
       </c>
@@ -8474,7 +8436,7 @@
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
         <v>630</v>
       </c>
@@ -8488,7 +8450,7 @@
       <c r="E437" s="6"/>
       <c r="F437" s="6"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" s="5" t="s">
         <v>631</v>
       </c>
@@ -8502,7 +8464,7 @@
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" s="5" t="s">
         <v>632</v>
       </c>
@@ -8516,7 +8478,7 @@
       <c r="E439" s="6"/>
       <c r="F439" s="6"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" s="5" t="s">
         <v>633</v>
       </c>
@@ -8530,7 +8492,7 @@
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" s="5" t="s">
         <v>634</v>
       </c>
@@ -8544,51 +8506,51 @@
       <c r="E441" s="6"/>
       <c r="F441" s="6"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" s="5" t="s">
         <v>635</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D442" s="6"/>
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>641</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>642</v>
@@ -8600,52 +8562,52 @@
         <v>75</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>652</v>
       </c>
@@ -8662,25 +8624,25 @@
         <v>70</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>657</v>
       </c>
@@ -8697,17 +8659,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>660</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>661</v>
@@ -8719,12 +8681,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>663</v>
       </c>
@@ -8741,22 +8703,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>668</v>
       </c>
@@ -8773,7 +8735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>670</v>
       </c>
@@ -8790,7 +8752,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>672</v>
       </c>
@@ -8807,7 +8769,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>674</v>
       </c>
@@ -8824,7 +8786,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>676</v>
       </c>
@@ -8841,15 +8803,15 @@
         <v>43</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>679</v>
       </c>
@@ -8866,15 +8828,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>681</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>31</v>
@@ -8883,7 +8845,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>682</v>
       </c>
@@ -8900,10 +8862,10 @@
         <v>70</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>684</v>
       </c>
@@ -8920,7 +8882,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>686</v>
       </c>
@@ -8937,10 +8899,10 @@
         <v>70</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>688</v>
       </c>
@@ -8957,7 +8919,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>690</v>
       </c>
@@ -8974,7 +8936,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>692</v>
       </c>
@@ -8991,7 +8953,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>694</v>
       </c>
@@ -9008,17 +8970,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>698</v>
       </c>
@@ -9035,7 +8997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>700</v>
       </c>
@@ -9052,7 +9014,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>702</v>
       </c>
@@ -9069,15 +9031,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" s="5" t="s">
         <v>704</v>
       </c>
       <c r="B490" s="6" t="s">
+        <v>959</v>
+      </c>
+      <c r="C490" s="6" t="s">
         <v>960</v>
-      </c>
-      <c r="C490" s="6" t="s">
-        <v>961</v>
       </c>
       <c r="D490" s="6" t="s">
         <v>9</v>
@@ -9087,7 +9049,7 @@
       </c>
       <c r="F490" s="6"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>705</v>
       </c>
@@ -9104,12 +9066,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>708</v>
       </c>
@@ -9126,7 +9088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>710</v>
       </c>
@@ -9143,7 +9105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>712</v>
       </c>
@@ -9160,22 +9122,22 @@
         <v>101</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>716</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>717</v>
@@ -9187,7 +9149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>718</v>
       </c>
@@ -9204,17 +9166,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>722</v>
       </c>
@@ -9231,7 +9193,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>724</v>
       </c>
@@ -9248,12 +9210,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>727</v>
       </c>
@@ -9270,7 +9232,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>729</v>
       </c>
@@ -9287,7 +9249,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>731</v>
       </c>
@@ -9304,7 +9266,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>733</v>
       </c>
@@ -9321,7 +9283,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>735</v>
       </c>
@@ -9338,7 +9300,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>737</v>
       </c>
@@ -9355,17 +9317,17 @@
         <v>933</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>741</v>
       </c>
@@ -9382,12 +9344,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>744</v>
       </c>
@@ -9404,12 +9366,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>747</v>
       </c>
@@ -9426,15 +9388,15 @@
         <v>933</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>749</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D518" s="2" t="s">
         <v>9</v>
@@ -9443,25 +9405,25 @@
         <v>131</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>752</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D521" s="2" t="s">
         <v>31</v>
@@ -9470,7 +9432,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>753</v>
       </c>
@@ -9487,32 +9449,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>760</v>
       </c>
@@ -9529,70 +9491,70 @@
         <v>75</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>773</v>
       </c>
       <c r="B540" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C540" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="C540" s="2" t="s">
-        <v>968</v>
       </c>
       <c r="D540" s="2" t="s">
         <v>16</v>
@@ -9601,32 +9563,32 @@
         <v>83</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>779</v>
       </c>
@@ -9643,7 +9605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>781</v>
       </c>
@@ -9660,15 +9622,15 @@
         <v>397</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>783</v>
       </c>
       <c r="B548" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C548" s="2" t="s">
         <v>969</v>
-      </c>
-      <c r="C548" s="2" t="s">
-        <v>970</v>
       </c>
       <c r="D548" s="2" t="s">
         <v>6</v>
@@ -9677,12 +9639,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>785</v>
       </c>
@@ -9699,20 +9661,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>788</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D552" s="2" t="s">
         <v>16</v>
@@ -9721,17 +9683,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>790</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>791</v>
@@ -9743,20 +9705,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>793</v>
       </c>
       <c r="B556" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C556" s="2" t="s">
         <v>973</v>
-      </c>
-      <c r="C556" s="2" t="s">
-        <v>974</v>
       </c>
       <c r="D556" s="2" t="s">
         <v>16</v>
@@ -9765,27 +9727,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>798</v>
       </c>
@@ -9802,37 +9764,37 @@
         <v>86</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>806</v>
       </c>
@@ -9849,57 +9811,57 @@
         <v>933</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>818</v>
       </c>
@@ -9916,76 +9878,76 @@
         <v>933</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="588" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A588" s="7" t="s">
         <v>828</v>
       </c>
       <c r="B588" s="8" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C588" s="8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D588" s="8"/>
       <c r="E588" s="8"/>
       <c r="F588" s="8"/>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>832</v>
       </c>
@@ -10002,108 +9964,108 @@
         <v>933</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="600" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A600" s="7" t="s">
         <v>841</v>
       </c>
       <c r="B600" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C600" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D600" s="8"/>
       <c r="E600" s="8"/>
       <c r="F600" s="8"/>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="605" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" s="7" t="s">
         <v>846</v>
       </c>
       <c r="B605" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C605" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D605" s="8"/>
       <c r="E605" s="8"/>
       <c r="F605" s="8"/>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>849</v>
       </c>
       <c r="B608" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C608" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="C608" s="2" t="s">
-        <v>984</v>
       </c>
       <c r="D608" s="2" t="s">
         <v>6</v>
@@ -10112,139 +10074,139 @@
         <v>43</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="611" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A611" s="7" t="s">
         <v>852</v>
       </c>
       <c r="B611" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C611" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D611" s="8"/>
       <c r="E611" s="8"/>
       <c r="F611" s="8"/>
     </row>
-    <row r="612" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" s="7" t="s">
         <v>853</v>
       </c>
       <c r="B612" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C612" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D612" s="8"/>
       <c r="E612" s="8"/>
       <c r="F612" s="8"/>
     </row>
-    <row r="613" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A613" s="7" t="s">
         <v>854</v>
       </c>
       <c r="B613" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C613" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D613" s="8"/>
       <c r="E613" s="8"/>
       <c r="F613" s="8"/>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="617" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A617" s="7" t="s">
         <v>858</v>
       </c>
       <c r="B617" s="8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C617" s="8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D617" s="8"/>
       <c r="E617" s="8"/>
       <c r="F617" s="8"/>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626" s="5" t="s">
         <v>867</v>
       </c>
       <c r="B626" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C626" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D626" s="6" t="s">
         <v>9</v>
@@ -10254,22 +10216,22 @@
       </c>
       <c r="F626" s="6"/>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629" s="5" t="s">
         <v>870</v>
       </c>
       <c r="B629" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C629" s="6" t="s">
         <v>871</v>
@@ -10282,7 +10244,7 @@
       </c>
       <c r="F629" s="6"/>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>872</v>
       </c>
@@ -10299,77 +10261,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
         <v>888</v>
       </c>
@@ -10386,7 +10348,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A646" s="5" t="s">
         <v>890</v>
       </c>
@@ -10403,35 +10365,35 @@
         <v>70</v>
       </c>
       <c r="F646" s="6" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
         <v>897</v>
       </c>
@@ -10448,62 +10410,62 @@
         <v>101</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
         <v>910</v>
       </c>
@@ -10520,52 +10482,52 @@
         <v>75</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
         <v>921</v>
       </c>
@@ -10582,25 +10544,25 @@
         <v>75</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A677" s="5" t="s">
         <v>925</v>
       </c>
       <c r="B677" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C677" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D677" s="6" t="s">
         <v>31</v>
@@ -10610,119 +10572,119 @@
       </c>
       <c r="F677" s="6"/>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A679" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="B678" s="2" t="s">
+      <c r="B679" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="C678" s="2" t="s">
+      <c r="C679" s="2" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A679" s="1" t="s">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A680" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B679" s="2" t="s">
+      <c r="B680" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="C679" s="2" t="s">
+      <c r="C680" s="2" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A680" s="1" t="s">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A681" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="B680" s="2" t="s">
+      <c r="B681" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="C680" s="2" t="s">
+      <c r="C681" s="2" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A681" s="1" t="s">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A682" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="B681" s="2" t="s">
+      <c r="B682" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="C681" s="2" t="s">
+      <c r="C682" s="2" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A682" s="1" t="s">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A683" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="B682" s="2" t="s">
+      <c r="B683" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="C682" s="2" t="s">
+      <c r="C683" s="2" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A683" s="1" t="s">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A684" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B683" s="2" t="s">
+      <c r="B684" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="C683" s="2" t="s">
+      <c r="C684" s="2" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A684" s="1" t="s">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A685" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B684" s="2" t="s">
+      <c r="B685" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="C684" s="2" t="s">
+      <c r="C685" s="2" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A685" s="1" t="s">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A686" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A687" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="B685" s="2" t="s">
+      <c r="B687" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="C685" s="2" t="s">
+      <c r="C687" s="2" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A686" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B686" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C686" s="2" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A687" s="1" t="s">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A688" s="1" t="s">
         <v>999</v>
-      </c>
-      <c r="B687" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C687" s="2" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A688" s="1" t="s">
-        <v>1000</v>
       </c>
       <c r="B688" s="2" t="s">
         <v>258</v>
@@ -10731,493 +10693,493 @@
         <v>258</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A690" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="B689" s="2" t="s">
+      <c r="B690" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="C689" s="2" t="s">
+      <c r="C690" s="2" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A690" s="1" t="s">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A691" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B690" s="2" t="s">
+      <c r="B691" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="C690" s="2" t="s">
+      <c r="C691" s="2" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A691" s="1" t="s">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A692" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B691" s="2" t="s">
+      <c r="B692" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="C691" s="2" t="s">
+      <c r="C692" s="2" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A692" s="1" t="s">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A693" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="B692" s="2" t="s">
+      <c r="B693" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="C692" s="2" t="s">
+      <c r="C693" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A693" s="1" t="s">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A694" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B693" s="2" t="s">
+      <c r="B694" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="C693" s="2" t="s">
+      <c r="C694" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A694" s="1" t="s">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A695" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B694" s="2" t="s">
+      <c r="B695" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="C694" s="2" t="s">
+      <c r="C695" s="2" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A695" s="1" t="s">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A696" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B695" s="2" t="s">
+      <c r="B696" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="C695" s="2" t="s">
+      <c r="C696" s="2" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A696" s="1" t="s">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A697" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B696" s="2" t="s">
+      <c r="B697" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="C696" s="2" t="s">
+      <c r="C697" s="2" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A697" s="1" t="s">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A698" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B697" s="2" t="s">
+      <c r="B698" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="C697" s="2" t="s">
+      <c r="C698" s="2" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A698" s="1" t="s">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A699" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B698" s="2" t="s">
+      <c r="B699" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="C698" s="2" t="s">
+      <c r="C699" s="2" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A699" s="1" t="s">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A700" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B699" s="2" t="s">
+      <c r="B700" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="C699" s="2" t="s">
+      <c r="C700" s="2" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A700" s="1" t="s">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A701" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B700" s="2" t="s">
+      <c r="B701" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="C700" s="2" t="s">
+      <c r="C701" s="2" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A701" s="1" t="s">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A702" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B701" s="2" t="s">
+      <c r="B702" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="C701" s="2" t="s">
+      <c r="C702" s="2" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A702" s="1" t="s">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A703" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B702" s="2" t="s">
+      <c r="B703" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="C702" s="2" t="s">
+      <c r="C703" s="2" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A703" s="1" t="s">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A704" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B703" s="2" t="s">
+      <c r="B704" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="C703" s="2" t="s">
+      <c r="C704" s="2" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A704" s="1" t="s">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A705" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B704" s="2" t="s">
+      <c r="B705" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="C704" s="2" t="s">
+      <c r="C705" s="2" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A705" s="1" t="s">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A706" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B705" s="2" t="s">
+      <c r="B706" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="C705" s="2" t="s">
+      <c r="C706" s="2" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A706" s="1" t="s">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A707" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="B706" s="2" t="s">
+      <c r="B707" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A708" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C708" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A709" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A710" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A711" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A712" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A713" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B713" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="C706" s="2" t="s">
+      <c r="C713" s="2" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A707" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B707" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C707" s="2" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A708" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B708" s="2" t="s">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A714" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C714" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A715" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C715" s="2" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A716" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C716" s="2" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A717" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B717" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="C708" s="2" t="s">
+      <c r="C717" s="2" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A709" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B709" s="2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C709" s="2" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A710" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B710" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C710" s="2" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A711" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B711" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C711" s="2" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A712" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B712" s="2" t="s">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A718" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A719" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A720" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C720" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A721" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A722" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A723" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A724" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A725" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C725" s="2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A726" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B726" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="C712" s="2" t="s">
+      <c r="C726" s="2" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A713" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B713" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C713" s="2" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A714" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B714" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C714" s="2" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A715" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B715" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C715" s="2" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A716" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B716" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C716" s="2" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A717" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B717" s="2" t="s">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A727" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C727" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A728" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A729" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="C717" s="2" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A718" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B718" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C718" s="2" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A719" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B719" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C719" s="2" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A720" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B720" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C720" s="2" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A721" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B721" s="2" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C721" s="2" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A722" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B722" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C722" s="2" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A723" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B723" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C723" s="2" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A724" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B724" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C724" s="2" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A725" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B725" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C725" s="2" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A726" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B726" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C726" s="2" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A727" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B727" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C727" s="2" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A728" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B728" s="2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C728" s="2" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A729" s="1" t="s">
+      <c r="B729" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="B729" s="2" t="s">
+      <c r="C729" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="C729" s="2" t="s">
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A730" s="1" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A730" s="1" t="s">
+      <c r="B730" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="B730" s="2" t="s">
+      <c r="C730" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="C730" s="2" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A732" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B731" s="2" t="s">
+      <c r="B732" s="2" t="s">
         <v>1114</v>
       </c>
-      <c r="C731" s="2" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A732" s="1" t="s">
+      <c r="C732" s="2" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A733" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="B732" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C732" s="2" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A733" s="1" t="s">
-        <v>1108</v>
       </c>
       <c r="B733" s="2" t="s">
         <v>1115</v>
@@ -11226,31 +11188,31 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C734" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A735" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="B734" s="2" t="s">
+      <c r="B735" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="C734" s="2" t="s">
+      <c r="C735" s="2" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A735" s="1" t="s">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A736" s="1" t="s">
         <v>1110</v>
-      </c>
-      <c r="B735" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C735" s="2" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A736" s="1" t="s">
-        <v>1111</v>
       </c>
       <c r="B736" s="2" t="s">
         <v>1118</v>
@@ -11259,92 +11221,26 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B737" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="B737" s="2" t="s">
-        <v>1127</v>
-      </c>
       <c r="C737" s="2" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B738" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="B738" s="2" t="s">
-        <v>1128</v>
-      </c>
       <c r="C738" s="2" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A739" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B739" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C739" s="2" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A740" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B740" s="2" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C740" s="2" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A741" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B741" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C741" s="2" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A742" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B742" s="2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C742" s="2" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A743" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B743" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C743" s="2" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A744" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B744" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C744" s="2" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
     </row>
   </sheetData>
